--- a/tools/excel/enisa/enisa-5g-scm-v1.3.xlsx
+++ b/tools/excel/enisa/enisa-5g-scm-v1.3.xlsx
@@ -1,15 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="library_content" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="reference_controls" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="requirements" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="library_meta" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="reference_controls_meta" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="reference_controls_content" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="requirements_meta" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="requirements_content" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="urn_prefix_meta" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="urn_prefix_content" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -415,7 +419,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -426,212 +430,121 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>library_urn</t>
+          <t>type</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>urn:intuitem:risk:library:enisa-5g-scm-v1.3</t>
+          <t>library</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>library_version</t>
+          <t>urn</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>urn:intuitem:risk:library:enisa-5g-scm-v1.3</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>library_locale</t>
+          <t>version</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>library_ref_id</t>
+          <t>locale</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ENISA 5G SCM v1.3</t>
+          <t>en</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>library_name</t>
+          <t>ref_id</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ENISA 5G Security Control Matrix v1.3</t>
+          <t>ENISA 5G SCM v1.3</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>library_description</t>
+          <t>name</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">The main goal of the ENISA 5G security controls matrix is to support the national authorities in the EU Member States with implementing the technical measures of the EU’s 5G Cybersecurity toolbox.
-Source: https://www.enisa.europa.eu/publications/5g-security-controls-matrix
-</t>
+          <t>ENISA 5G Security Control Matrix v1.3</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>library_copyright</t>
+          <t>description</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">The Matrix is provided on an ‘as is’ basis. ENISA is not responsible for the information contained in the Matrix, including the use that might be made of this information, or the content of any external sources referenced in the Matrix.
-</t>
+          <t>The main goal of the ENISA 5G security controls matrix is to support the national authorities in the EU Member States with implementing the technical measures of the EU’s 5G Cybersecurity toolbox.
+Source: https://www.enisa.europa.eu/publications/5g-security-controls-matrix</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>library_provider</t>
+          <t>copyright</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>ENISA</t>
+          <t>The Matrix is provided on an ‘as is’ basis. ENISA is not responsible for the information contained in the Matrix, including the use that might be made of this information, or the content of any external sources referenced in the Matrix.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>library_packager</t>
+          <t>provider</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>intuitem</t>
+          <t>ENISA</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>framework_urn</t>
+          <t>packager</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>urn:intuitem:risk:framework:enisa-5g-scm-v1.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>framework_ref_id</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ENISA 5G SCM v1.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>framework_name</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ENISA 5G Security Control Matrix v1.3</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>framework_description</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">The main goal of the ENISA 5G security controls matrix is to support the national authorities in the EU Member States with implementing the technical measures of the EU’s 5G Cybersecurity toolbox.
-Source: https://www.enisa.europa.eu/publications/5g-security-controls-matrix
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>reference_control_base_urn</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>urn:intuitem:risk:reference_control:enisa-5g-scm</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>tab</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>reference_controls</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>reference_controls</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>tab</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>requirements</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>requirements</t>
+          <t>intuitem</t>
         </is>
       </c>
     </row>
@@ -641,6 +554,49 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>reference_controls</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>base_urn</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>urn:intuitem:risk:reference_control:enisa-5g-scm</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3124,7 +3080,99 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>framework</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>base_urn</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>urn:intuitem:risk:req_node:enisa-5g-scm-v1.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>urn</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>urn:intuitem:risk:framework:enisa-5g-scm-v1.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ref_id</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>ENISA 5G SCM v1.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>ENISA 5G Security Control Matrix v1.3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>description</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>The main goal of the ENISA 5G security controls matrix is to support the national authorities in the EU Member States with implementing the technical measures of the EU’s 5G Cybersecurity toolbox.
+Source: https://www.enisa.europa.eu/publications/5g-security-controls-matrix</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3176,7 +3224,6 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr"/>
       <c r="B2" t="n">
         <v>1</v>
       </c>
@@ -3195,10 +3242,8 @@
           <t>D1 covers the security objectives related to governance and management of network and information security risks</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
       <c r="B3" t="n">
         <v>2</v>
       </c>
@@ -3217,7 +3262,6 @@
           <t>Establish and maintain an appropriate information security policy</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -3233,7 +3277,6 @@
           <t>SO1-001</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
       <c r="E4" t="inlineStr">
         <is>
           <t>Security policy is defined, followed, and kept updated</t>
@@ -3264,7 +3307,6 @@
           <t>SO1-002</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
       <c r="E5" t="inlineStr">
         <is>
           <t>Industry trends and best practices related to security management should be monitored</t>
@@ -3282,7 +3324,6 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr"/>
       <c r="B6" t="n">
         <v>2</v>
       </c>
@@ -3301,7 +3342,6 @@
           <t>Establish and maintain an appropriate governance and risk management framework, to identify and address risks for the communications networks and services</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -3317,7 +3357,6 @@
           <t>SO2-001</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
       <c r="E7" t="inlineStr">
         <is>
           <t>Extensive assessment of virtualization-related vulnerabilities for MEC components</t>
@@ -3348,7 +3387,6 @@
           <t>SO2-002</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
           <t>Insurable risks are identified, assessed, and appropriately mitigated</t>
@@ -3379,7 +3417,6 @@
           <t>SO2-003</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>Internal and external sources of risks and threats are identified proactively. Threats of particular significance for 5G networks are included. Identified risks are aligned with the main risks for 5G networks identified in the EU Coordinated Risk Assessment of 5G Network Security.</t>
@@ -3410,7 +3447,6 @@
           <t>SO2-004</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>A baseline set of security controls should be selected, designed, and specified</t>
@@ -3441,7 +3477,6 @@
           <t>SO2-005</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>The MNO should have a mature supply chain risks management (SCRM), which should include security assessments of vendor development and product lifecycle processes and security assurance specifications. Such risk assessments could include 3GPP SCAS or the Common Criteria. 
@@ -3461,7 +3496,6 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
       <c r="B12" t="n">
         <v>2</v>
       </c>
@@ -3480,7 +3514,6 @@
           <t>Establish and maintain an appropriate structure of security roles and responsibilities</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3496,7 +3529,6 @@
           <t>SO3-001</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>Assign security roles and responsibilities to personnel with clear segregation of duties</t>
@@ -3514,7 +3546,6 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
       <c r="B14" t="n">
         <v>2</v>
       </c>
@@ -3533,7 +3564,6 @@
           <t>Establish and maintain a policy, with security requirements for contracts with third parties, to ensure that dependencies on third parties do not negatively affect security of networks and/or services</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3549,7 +3579,6 @@
           <t>SO4-001</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>Equipment installed outside a telecommunications organization's own premises should be sited in a protected area</t>
@@ -3580,7 +3609,6 @@
           <t>SO4-002</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>Protection against semiconductor doping</t>
@@ -3611,7 +3639,6 @@
           <t>SO4-003</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
         <is>
           <t>Prevent TPM-Fail vulnerabilities</t>
@@ -3642,7 +3669,6 @@
           <t>SO4-004</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
         <is>
           <t>SBOM for software components (including NFV software components) is maintained. This makes it possible to quickly scan and search the SBOM for any Zero-Day vulnerability once disclosed, allowing the MNO and the cloud provider to respond quickly to such vulnerability to mitigate potential attacks. SBOM should follow the NTIA guidelines and be in a machine-readable format, such as SPDX, or CycloneDX.</t>
@@ -3673,7 +3699,6 @@
           <t>SO4-005</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>Resource development should be coordinated with suppliers</t>
@@ -3704,7 +3729,6 @@
           <t>SO4-006</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>Sourcing requirements and limitations with necessary non-disclosure clauses should be adequately defined. Sourcing requirements and limitations should address threats posed by potentially high-risk suppliers or managed service providers.</t>
@@ -3735,7 +3759,6 @@
           <t>SO4-007</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">Operational and security clauses should be defined in agreements with suppliers and partners </t>
@@ -3766,7 +3789,6 @@
           <t>SO4-008</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>Contractual obligations of third parties, including suppliers, are monitored and any variations are managed</t>
@@ -3798,7 +3820,6 @@
           <t>SO4-009</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>Support party requisition should be managed</t>
@@ -3829,7 +3850,6 @@
           <t>SO4-010</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>Support party performance should be managed to ensure its efficient operation</t>
@@ -3860,7 +3880,6 @@
           <t>SO4-011</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
           <t>NFV providers have patches available for vulnerabilities in NFV components as soon as possible. Patching shall be controlled via change control process with vulnerabilities disclosed along with mitigation recommendations. The patch management process must consider the ability to update the cryptographic algorithms and to adapt to upcoming 5G security challenges.</t>
@@ -3892,7 +3911,6 @@
           <t>SO4-012</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>Adequate policies and processes for supplier/partner selection should be used. They should manage the potential risk of dependency on a single supplier of network equipment.</t>
@@ -3923,7 +3941,6 @@
           <t>SO4-013</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
           <t>Adequate tender and purchase process should be in place</t>
@@ -3954,7 +3971,6 @@
           <t>SO4-014</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
           <t>Supplier/Partner interface should be managed</t>
@@ -3985,7 +4001,6 @@
           <t>SO4-016</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
           <t>Interaction with external parties should be handled</t>
@@ -4016,7 +4031,6 @@
           <t>SO4-017</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
           <t>Performance of services, processes, or resources delivered by external parties are monitored</t>
@@ -4047,7 +4061,6 @@
           <t>SO4-018</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
           <t>Interaction with external parties should be tracked</t>
@@ -4078,7 +4091,6 @@
           <t>SO4-019</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
       <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve">MNO requires vendors to implement security requirements of relevant 5G technical specifications (including 3GPP) and industry standards </t>
@@ -4109,7 +4121,6 @@
           <t>SO4-020</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>MNO requires vendors to apply consistent code review in line with best practices. If feasible, the review should use a Source Code Analysis tool and be automated where approriate.
@@ -4141,7 +4152,6 @@
           <t>SO4-021</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
       <c r="E34" t="inlineStr">
         <is>
           <t>MNO requires vendors to ensure that no code changes are introduced to a network product without appropriate governance</t>
@@ -4172,7 +4182,6 @@
           <t>SO4-022</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
       <c r="E35" t="inlineStr">
         <is>
           <t>MNO requires vendors to protect component compilation and build process from tampering and ensure that builds are reproducible, deterministic, and cover security procedures</t>
@@ -4203,7 +4212,6 @@
           <t>SO4-023</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>MNO requires vendors to ensure proper testing and/or support for periodic testing of network products</t>
@@ -4234,7 +4242,6 @@
           <t>SO4-024</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>MNO requires vendors to implement effective software integrity verification methods</t>
@@ -4265,7 +4272,6 @@
           <t>SO4-025</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>MNO requires vendors to ensure that software versions are uniquely identified</t>
@@ -4296,7 +4302,6 @@
           <t>SO4-026</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>MNO requires vendors to ship up-to-date documentation along with network products and software upgrades</t>
@@ -4327,7 +4332,6 @@
           <t>SO4-027</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
           <t>MNO requires vendors to provide a point of contact for security questions/issues</t>
@@ -4358,7 +4362,6 @@
           <t>SO4-028</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
           <t>MNO requires vendors to have reliable processes to collect and process updated information about vulnerabilities in 3rd party components. This may include tracking open vulnerability databases</t>
@@ -4389,7 +4392,6 @@
           <t>SO4-029</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
           <t>MNO requires vendors to have a process to deal with vulnerabilities in network products and issue security patches/upgrades</t>
@@ -4420,7 +4422,6 @@
           <t>SO4-030</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
           <t>MNO requires vendors to guarantee that there are no intentionally introduced vulnerabilities, as well as, a reliable process for communicating any discovered vulnerabilities along with corresponding software fixes in a timely manner</t>
@@ -4451,7 +4452,6 @@
           <t>SO4-031</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
           <t>MNO requires vendors to use a version control system, including for hardware, source code, build tools and environment, binary software, and 3rd party components</t>
@@ -4482,7 +4482,6 @@
           <t>SO4-032</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
           <t>MNO requires vendors to have a comprehensive and documented change management process for ensuring that all requirements and design changes are managed and tracked in a systematic and timely manner</t>
@@ -4513,7 +4512,6 @@
           <t>SO4-033</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>MNO requires contractors and vendors that their staff involved in network product design, engineering, development, implementation, testing and maintenance are security-vetted with background checks and undergo regular security education</t>
@@ -4544,7 +4542,6 @@
           <t>SO4-034</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>MNO requires vendors to have an effective Information Security Management System (ISMS), including information classification and handling schemes to avoid leakage of sensitive information and processes for security flaw root cause analysis to continually improve the development and product lifecycle</t>
@@ -4575,7 +4572,6 @@
           <t>SO4-035</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>MNO requires vendors to comply with relevant EU certification schemes for 5G network components, customer equipment and/or suppliers’ processes or for other non 5G-specific ICT products and services, such as end-user devices and/or cloud services (when EU certification schemes are not available, other interim solutions, such as reliance on certification schemes based on industry standards, could be considered instead), and, to the extent they are not covered by such certification schemes, adherence to best practices and industry standards throughout the lifetime of the component</t>
@@ -4606,7 +4602,6 @@
           <t>SO4-036</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
           <t>MNO requires vendors to support in investigating and remedying security incidents</t>
@@ -4637,7 +4632,6 @@
           <t>SO4-037</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>MNO requires vendors to demonstrate quality level of internal information security processes, including having a secure software development lifecycle (SDLC) built in the product development process</t>
@@ -4668,7 +4662,6 @@
           <t>SO4-038</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
           <t>NFV vendors and MNOs should ensure that any security critical, customer privacy or confidentiality related information is stored securely on any shared or local storage using industry standard best practice (e.g. encryption).</t>
@@ -4701,7 +4694,6 @@
           <t>SO4-039</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
           <t>Third party hosting environments that support VNFs should meet 3GPP virtualisation security requirements.</t>
@@ -4732,7 +4724,6 @@
           <t>SO4-040</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
           <t>Software developers should maintain an up-to-date inventory of third-party components, including—to the extent practicable—an inventory of subcomponents and dependencies indirectly incorporated via third-party components, as might be listed in a Software Bill of Materials (SBOM), for example.
@@ -4766,7 +4757,6 @@
           <t>SO4-041</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
           <t>A datacentre site supporting NFVI and MANO elements should be operated and controlled by the MNO and, ideally, not outsourced using a third party IaaS supplier. While not recommended, if the MNO chooses to use a third party operated datacenter, additional security controls are necessary to ensure that this provider complies with the MNO’s physical and outsourcing security controls. If the NFVI is deployed on the cloud in an IaaS model, then the MNO should be able to attest the root of trust on demand.</t>
@@ -4801,7 +4791,6 @@
           <t>SO4-042</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
           <t>SLAs between MNOs, network product suppliers and cloud service providers (in case of public/hybrid cloud models) should cover security, including in NFV. This could be done via Security Service Level Agreements (SSLAs), with the MNO monitoring their fulfillment.
@@ -4836,7 +4825,6 @@
           <t>SO4-043</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
           <t>MNOs should ensure that their suppliers have a Coordinated Vulnerability Disclosure (CVD) program in place. They should also ensure, via contractual arrangements, that they receive timely information about newly discovered vulnerabilities.</t>
@@ -4867,7 +4855,6 @@
           <t>SO4-044</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
           <t>Proper management of external party notifications of potential security/performance issues</t>
@@ -4898,7 +4885,6 @@
           <t>SO4-045</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>Security incidents or performance issues caused by external parties are assessed</t>
@@ -4929,7 +4915,6 @@
           <t>SO4-046</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
           <t>Security incidents or performance issues caused by external parties are identified</t>
@@ -4960,7 +4945,6 @@
           <t>SO4-047</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
           <t>Performance of problem resolution (such as performance degradation) and restoration of services by external parties is monitored</t>
@@ -4991,7 +4975,6 @@
           <t>SO4-048</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
           <t>Past security incidents or performance issues, including trends, caused by external parties should be analyzed</t>
@@ -5009,7 +4992,6 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr"/>
       <c r="B62" t="n">
         <v>1</v>
       </c>
@@ -5028,10 +5010,8 @@
           <t>D2 covers the security objectives related to personnel</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr"/>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
       <c r="B63" t="n">
         <v>2</v>
       </c>
@@ -5050,7 +5030,6 @@
           <t>Perform appropriate background checks on personnel if required for their duties and responsibilities</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -5066,7 +5045,6 @@
           <t>SO5-001</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>Personnel that have access, either physically or through management systems, to critical or sensitive components of 5G networks (e.g. for deployment / operations purposes) are security-vetted and qualified</t>
@@ -5084,7 +5062,6 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr"/>
       <c r="B65" t="n">
         <v>2</v>
       </c>
@@ -5103,7 +5080,6 @@
           <t>Ensure that personnel have sufficient security knowledge and that they are provided with regular security training</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -5119,7 +5095,6 @@
           <t>SO6-001</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>Training program for staff is updated regularly. Processes are in place for ensuring that staff undergoes regular security education with up-to-date training material, including on 5G technical topics, where appropriate</t>
@@ -5137,7 +5112,6 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr"/>
       <c r="B67" t="n">
         <v>1</v>
       </c>
@@ -5156,10 +5130,8 @@
           <t>D3 covers the physical and logical security of network and information systems and facilities</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr"/>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr"/>
       <c r="B68" t="n">
         <v>2</v>
       </c>
@@ -5178,7 +5150,6 @@
           <t>Establish and maintain the appropriate physical and environmental security of network and information systems and facilities</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -5194,7 +5165,6 @@
           <t>SO9-001</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
           <t>Geographical location of any hardware supporting NFV must comply with each MNO's local regulatory requirements for operating a telecoms network and handling its customers' sensitive data.</t>
@@ -5225,7 +5195,6 @@
           <t>SO9-002</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>Physical security of communication centers, equipment rooms, and physically isolated operation areas is designed, developed, and applied. Physical security measures cover (multi-vendor) spare part management. Physical security policy should allow remote shutdown (or data clearing) for ciritcal stolen equipment and/or re-authentication/re-configuration after a physical attack or power failure</t>
@@ -5256,7 +5225,6 @@
           <t>SO9-003</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
           <t>Protection against side-channel vulnerabilities should be deployed for critical systems</t>
@@ -5287,7 +5255,6 @@
           <t>SO9-004</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>Hardware backdoors, when detected, are removed</t>
@@ -5318,7 +5285,6 @@
           <t>SO9-005</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
           <t>No unprotected physical management consoles and interfaces</t>
@@ -5349,7 +5315,6 @@
           <t>SO9-006</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
           <t>Fiber cable management for protecting cables</t>
@@ -5380,7 +5345,6 @@
           <t>SO9-007</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
           <t>Junction boxes and splice closures are located away from high traffic areas. Physical controls ensure that only authorized personnel can access junction boxes and splice closures</t>
@@ -5411,7 +5375,6 @@
           <t>SO9-008</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
           <t>MNO ensures physical security of equipment in transport</t>
@@ -5442,7 +5405,6 @@
           <t>SO9-009</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
           <t>If local, non-volatile, fixed or removable storage is used to support a VNF then it should not store critical security, customer privacy or confidential information such that its theft or removal would enable an attacker to gain a copy of the stored data.</t>
@@ -5463,7 +5425,6 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr"/>
       <c r="B78" t="n">
         <v>2</v>
       </c>
@@ -5482,7 +5443,6 @@
           <t>Establish and maintain appropriate security of critical supplies (for example electric power, fuel, cooling etc.)</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -5498,7 +5458,6 @@
           <t>SO10-001</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
           <t>Power supply continuity strategy that avoids a single point of supply failure</t>
@@ -5516,7 +5475,6 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr"/>
       <c r="B80" t="n">
         <v>2</v>
       </c>
@@ -5535,7 +5493,6 @@
           <t>Establish and maintain appropriate (logical) access controls for access to network and information systems</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -5551,7 +5508,6 @@
           <t>SO11-001</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>UPF (or SMF depending on MNO) assigns unique tunnel endpoint IDs (TEIDs) for each PDU session while ensuring that TEID is unique within  one IP address</t>
@@ -5582,7 +5538,6 @@
           <t>SO11-002</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
           <t>SMF assigns unique charging IDs for each PDU session</t>
@@ -5613,7 +5568,6 @@
           <t>SO11-003</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
           <t>Users are identified unambiguously by the network product using a user name and an authentication attribute (user could be a person, machine, application or a system). Network products support individual accounts per user and don't enable the use of group accounts, group credentials or sharing of accounts between several users</t>
@@ -5644,7 +5598,6 @@
           <t>SO11-004</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
           <t>Network functions/products allow signed in users to logout at any time. All processes under the logged in user ID are terminated on log out. Network function/product is able to continue operation without interactive sessions. OAM user interactive session are terminated automatically after a specified configurable period
@@ -5676,7 +5629,6 @@
           <t>SO11-005</t>
         </is>
       </c>
-      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
           <t>System accounts in UNIX (and derivatives like LINUX) have unique UIDs</t>
@@ -5707,7 +5659,6 @@
           <t>SO11-006</t>
         </is>
       </c>
-      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
           <t xml:space="preserve">Session ID is unpredictable. It uniquely identifies the user and distinguishes the session from all other active sessions. Session ID does not contain sensitive information in clear text </t>
@@ -5738,7 +5689,6 @@
           <t>SO11-007</t>
         </is>
       </c>
-      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
           <t xml:space="preserve"> Network product only accepts server generated session IDs and does not accept session identifiers from GET/POST variables</t>
@@ -5769,7 +5719,6 @@
           <t>SO11-008</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
           <t>Network product automatically terminate sessions after a configurable maximum lifetime. When the maximum lifetime expires, the session is closed, the session ID is deleted, and the user is forced to (re)authenticate to establish a new session. Default value for this maximum lifetime should be set to 8 hours</t>
@@ -5800,7 +5749,6 @@
           <t>SO11-009</t>
         </is>
       </c>
-      <c r="D89" t="inlineStr"/>
       <c r="E89" t="inlineStr">
         <is>
           <t xml:space="preserve"> Network product does not use persistent cookies to manage sessions and only uses session cookies. In session cookies: neither the "expire" nor the "max-age" attribute is set; attribute 'HttpOnly' is set to true; 'domain' attribute is set to ensure that the cookie can only be sent to the
@@ -5832,7 +5780,6 @@
           <t>SO11-010</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr"/>
       <c r="E90" t="inlineStr">
         <is>
           <t>Network slice should perform access authentication and authorization in addition to primary authentication used for 3GPP access. This additional access authentication and authorization should use credentials other than those used for the primary authentication</t>
@@ -5863,7 +5810,6 @@
           <t>SO11-011</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr"/>
       <c r="E91" t="inlineStr">
         <is>
           <t>MANO components (NFVO, VIM, and VNFM) should verify identity and location of the sender before acting on received data</t>
@@ -5894,7 +5840,6 @@
           <t>SO11-012</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
           <t>SDN control layer should authenticate and authorize administrators and applications. SDN controller should authenticate the switches</t>
@@ -5925,7 +5870,6 @@
           <t>SO11-013</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
           <t>AKMA reuses the same UE subscription and the same credentials used for 5G access</t>
@@ -5956,7 +5900,6 @@
           <t>SO11-014</t>
         </is>
       </c>
-      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
           <t>AKMA reuses the 5G primary authentication procedure for implicit authentication to AKMA services</t>
@@ -5987,7 +5930,6 @@
           <t>SO11-015</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
           <t>A-KID should be globlly unique</t>
@@ -6018,7 +5960,6 @@
           <t>SO11-016</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr"/>
       <c r="E96" t="inlineStr">
         <is>
           <t>AAnFs should implement Naanf_AKMA_AnchorKey_Register service in accordance with 3GPP technical specification 33.535, clause 7.1.2</t>
@@ -6049,7 +5990,6 @@
           <t>SO11-017</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
           <t>AAnFs should implement Naanf_AKMA_ApplicationKey_Get service in accordance with 3GPP technical specification 33.535, clause 7.1.3</t>
@@ -6080,7 +6020,6 @@
           <t>SO11-018</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
         <is>
           <t>AAnFs should implement Naanf_AKMA_Context_Remove service in accordance with 3GPP technical specification 33.535, clause 7.1.4</t>
@@ -6111,7 +6050,6 @@
           <t>SO11-019</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr"/>
       <c r="E99" t="inlineStr">
         <is>
           <t>AAnFs should implement Naanf_AKMA_ApplicationKey_ AnonUser_Getservice service in accordance with 3GPP technical specification 33.535, clause 7.1.5</t>
@@ -6142,7 +6080,6 @@
           <t>SO11-020</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
           <t>NEFs should implement Nnef_AKMA_ApplicationKey_Get service in accordance with 3GPP technical specification 33.535, clause 7.1.5</t>
@@ -6173,7 +6110,6 @@
           <t>SO11-021</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
           <t>VAL users authenticated and are provided access tokens with OAuth 2.0, OpenID Connect 1.0, or ACE-Oauth  for light-weight protocol realizations</t>
@@ -6204,7 +6140,6 @@
           <t>SO11-022</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
         <is>
           <t>AMFs verify that the UE's 5G security capabilities received from the target gNB match with locally stored values. If there is a mismatch, the AMFs send their locally stored 5G security capabilities of the UE to the target gNB for preventing bidding down on Xn-handover</t>
@@ -6235,7 +6170,6 @@
           <t>SO11-023</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
           <t>SEAF handles failures of primary authentication. Namely, if the verification of HRES* fails at SEAF or verification of RES* fails at AUSF, then the SEAF either initiates an identification procedure with the UE if the 5G-GUTI was used by the UE to retrieve the SUCI, or it sends an authentication failure message to the UE</t>
@@ -6266,7 +6200,6 @@
           <t>SO11-024</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
         <is>
           <t>AUSFs should implement Nausf_UEAuthentication service in accordance with 3GPP technical specification 33.501, clause 14.1</t>
@@ -6297,7 +6230,6 @@
           <t>SO11-025</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
         <is>
           <t xml:space="preserve">Upon receiving an authentication failure message with synchronization failure (AUTS) from the UE, the SEAF sends a synchronization failure
@@ -6329,7 +6261,6 @@
           <t>SO11-026</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
         <is>
           <t>UDMs should implement Nudm_UEAuthentication_Get service in accordance with 3GPP technical specification 33.501, clause 14.2</t>
@@ -6360,7 +6291,6 @@
           <t>SO11-027</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr"/>
       <c r="E107" t="inlineStr">
         <is>
           <t>UDMs should implement Nudm_UEAuthentication_ResultConfirmation service in accordance with 3GPP technical specification 33.501, clause 14.2</t>
@@ -6391,7 +6321,6 @@
           <t>SO11-028</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr"/>
       <c r="E108" t="inlineStr">
         <is>
           <t>SMF gives priority to security policy from UDM over locally configured policy</t>
@@ -6422,7 +6351,6 @@
           <t>SO11-029</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr"/>
       <c r="E109" t="inlineStr">
         <is>
           <t>During a handover, the SMF sends locally stored user plane security policy to the gNB/ng-eNB when there is a mismatch in the policy received from the radio network gNB/ng-eNB</t>
@@ -6453,7 +6381,6 @@
           <t>SO11-030</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
         <is>
           <t>SEPPs are able to identify mismatch between the PLMN-ID contained in the incoming N32-f message and the PLMN-ID in the related N32-f context, and send appropriate error code on mismatch</t>
@@ -6484,7 +6411,6 @@
           <t>SO11-031</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
         <is>
           <t>SEPP checks that the serving PLMN-ID of subject claim in the access token matches the remote PLMN-ID
@@ -6516,7 +6442,6 @@
           <t>SO11-032</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
           <t>SEPPs identify a mismatch between the protection policies manually configured for a specific roaming partner and an IPX provider and the protection policies received on an N32-c connection, and send an error message on mismatch</t>
@@ -6547,7 +6472,6 @@
           <t>SO11-033</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
         <is>
           <t>SEPPs ensure that intermediate IPX don't misplace (move or copy) encrypted IE to a different location in a JSON object that would be reflected from the producer NF for an IE without encryption</t>
@@ -6578,7 +6502,6 @@
           <t>SO11-034</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
           <t>NRFs authorize discovery requests from network functions based on the profile of the expected function/service and the type of the service consumer. If the expected function/service is deployed in a different network slice, NRF authorizes the discovery request according to the configuration of that slice. Example of such policy configuration could be that certain function/service instances are not discoverable from other network slices</t>
@@ -6609,7 +6532,6 @@
           <t>SO11-035</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
         <is>
           <t>NRFs should implement Nnrf_AccessToken_Get service in accordance with 3GPP technical specification 33.501, clause 14.3</t>
@@ -6640,7 +6562,6 @@
           <t>SO11-036</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
         <is>
           <t>NEFs authorize requests from application functions using standard OAuth as profiled in 3GPP TS 33.501</t>
@@ -6671,7 +6592,6 @@
           <t>SO11-037</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
       <c r="E117" t="inlineStr">
         <is>
           <t>System functions (such as the Management Plane) are not accessed without successful authentication and authorization. Access control policy should restrict and/or control remote access by third parties, especially by suppliers or managed service providers considered to be high-risk or accessing the network from outside of EU. If necessary, only temporary onsite/remote access to third parties should be provided and no permanent credentials are disclosed</t>
@@ -6702,7 +6622,6 @@
           <t>SO11-038</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
       <c r="E118" t="inlineStr">
         <is>
           <t>A centralized Privileged Access Management (PAM) solution is in place. Authorizations for accounts, files, and applications is reduced to the minimum required for the tasks they have to perform. Execution of applications and components shall also take place with rights that are as limited as possible. Access control policy is reviewed and revised based on 5G risk assessment</t>
@@ -6733,7 +6652,6 @@
           <t>SO11-039</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
       <c r="E119" t="inlineStr">
         <is>
           <t>Privilege escalation in interactive sessions (CLI or GUI) of a network product is not allowed without re-authentication</t>
@@ -6764,7 +6682,6 @@
           <t>SO11-040</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
       <c r="E120" t="inlineStr">
         <is>
           <t xml:space="preserve">Network product restricts the reachability of services so that they can only be reached on interfaces where their usage is required. On interfaces where services are active, the reachability is limited to legitimate peers. This limitation shall be realized on the network product itself (without measures, e.g. firewall, at network side), or by implementing devices such as a virtual firewall, hardware firewall, or a third-party firewall agent. </t>
@@ -6797,7 +6714,6 @@
           <t>SO11-041</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
       <c r="E121" t="inlineStr">
         <is>
           <t>Only users that are authorized to modify files, data, directories or file systems have the necessary privileges to do so. In Unix® systems, the 'sticky' bit can be set on all directories where all users have write permissions</t>
@@ -6828,7 +6744,6 @@
           <t>SO11-042</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr"/>
       <c r="E122" t="inlineStr">
         <is>
           <t>Mutual authentication between the UE and network using EAP-AKA' and 5G AKA should be supported</t>
@@ -6859,7 +6774,6 @@
           <t>SO11-043</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
       <c r="E123" t="inlineStr">
         <is>
           <t>NSSAAF should implement Nnssaaf_NSSAA_Authenticate service in accordance with 3GPP technical specification 33.501, clause 14.4.1.2</t>
@@ -6890,7 +6804,6 @@
           <t>SO11-044</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
       <c r="E124" t="inlineStr">
         <is>
           <t>NSSAAF should implement Nnssaaf_NSSAA_Re-AuthenticationNotification service in accordance with 3GPP technical specification 33.501, clause 14.4.1.3</t>
@@ -6921,7 +6834,6 @@
           <t>SO11-045</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
       <c r="E125" t="inlineStr">
         <is>
           <t>NSSAAF should implement Nnssaaf_NSSAA_RevocationNotification service in accordance with 3GPP technical specification 33.501, clause 14.4.1.4</t>
@@ -6952,7 +6864,6 @@
           <t>SO11-046</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
       <c r="E126" t="inlineStr">
         <is>
           <t>Slice management interface is accessed only by authorized communication service customers</t>
@@ -6983,7 +6894,6 @@
           <t>SO11-047</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
       <c r="E127" t="inlineStr">
         <is>
           <t>Access to the network management
@@ -7016,7 +6926,6 @@
           <t>SO11-048</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
       <c r="E128" t="inlineStr">
         <is>
           <t>Network functions (NFs) only communicate with other Network functions (NFs) for which they are specifically authorized. The rules are applied irrespective of whether a NF is a Virtual Network Function (VNF) or a Physical Network Function (PNF). By default, NFs should block communication unless specifically authorized to communicate.</t>
@@ -7047,7 +6956,6 @@
           <t>SO11-049</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
       <c r="E129" t="inlineStr">
         <is>
           <t>Protection against hypervisor introspection. Access to state information of guest OS from the hypervisor is restricted and privilege is granted based on "lowest privilege" principle</t>
@@ -7078,7 +6986,6 @@
           <t>SO11-050</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
       <c r="E130" t="inlineStr">
         <is>
           <t>MEC platform provides a mobile edge application only the information for which it is authorized</t>
@@ -7109,7 +7016,6 @@
           <t>SO11-051</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
       <c r="E131" t="inlineStr">
         <is>
           <t>Virtualization platforms or container infrastructure supporting role-based access control in MEC are in use</t>
@@ -7140,7 +7046,6 @@
           <t>SO11-052</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
       <c r="E132" t="inlineStr">
         <is>
           <t>Network and data separation: Presence of both physical and logical isolation of resources that don't have the same criticality</t>
@@ -7171,7 +7076,6 @@
           <t>SO11-053</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
       <c r="E133" t="inlineStr">
         <is>
           <t xml:space="preserve"> VM escape protection: To prevent an attacker from utilising a VNF vulnerability to attack the virtualisation layer and gain control over it, the virtualisation layer shall reject abnormal access from the VNF ('abnormal' is understood as, for example, the VNF accessing memory not allocated to it) and log the attack.
@@ -7204,7 +7108,6 @@
           <t>SO11-054</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
       <c r="E134" t="inlineStr">
         <is>
           <t>SEAL servers provide service access only to authorized users</t>
@@ -7235,7 +7138,6 @@
           <t>SO11-055</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
       <c r="E135" t="inlineStr">
         <is>
           <t>VAL servers provide service access only to authorized users</t>
@@ -7266,7 +7168,6 @@
           <t>SO11-056</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
       <c r="E136" t="inlineStr">
         <is>
           <t>Administration of the virtualisation fabric : Access to the management plane needs to be temporary and time-bound. The MNO needs to constrain the number of administrator accounts able to modify the Virtualisation Fabric, and the number of administrators, to a minimal manageable number to meet their needs. Administrators need to be prevented from being able to grant themselves privileged access to the network, and should not have access to the host’s hardware or the virtualised workloads running within the environment. 
@@ -7300,7 +7201,6 @@
           <t>SO11-057</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
       <c r="E137" t="inlineStr">
         <is>
           <t>Access control on NFV of admins attempting to gain access to the NFV resources (VNF or the NFVI). Two potential solutions:
@@ -7337,7 +7237,6 @@
           <t>SO11-058</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
       <c r="E138" t="inlineStr">
         <is>
           <t>VNF lifecycle management security: 
@@ -7377,7 +7276,6 @@
           <t>SO11-059</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr"/>
       <c r="E139" t="inlineStr">
         <is>
           <t xml:space="preserve">The network used for the communication between the VNFCs of a VNF (intra-VNF traffic) is separated from the network used for the communication between VNFs (inter-VNF traffic) to prevent security threats from spreading between different networks. Software defined traffic rules applied directly to each virtual function are used to limit both incoming and outgoing traffic in an efficient and scalable way. Each VNF has at least two separate (logical) interfaces dedicated to different network domains. </t>
@@ -7413,7 +7311,6 @@
           <t>SO11-060</t>
         </is>
       </c>
-      <c r="D140" t="inlineStr"/>
       <c r="E140" t="inlineStr">
         <is>
           <t>When a VNF moves from one host to another or when a VNF is terminated, the system should ensure that resources, privacy sensitive data, and/or keys are fully and securely cleared. In addition, the hypervisor or the CIS should be configured to securely wipe out the virtual volume disks in the event a VNF is crashed or intentionally destroyed to prevent its resources from unauthorised access.</t>
@@ -7451,7 +7348,6 @@
           <t>SO11-061</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
       <c r="E141" t="inlineStr">
         <is>
           <t>Reduce the hardware platform (computing platform based for example on the x86 hardware architecture (32bit or 64bit), such as servers) attack surface by disabling unneeded interfaces.
@@ -7489,7 +7385,6 @@
           <t>SO11-062</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr"/>
       <c r="E142" t="inlineStr">
         <is>
           <t>The MEC platform should authenticate all MEC application instances, and only provide them with the information for which the application is authorized. OAuth 2.0 based on X.509 client certificates are used for authorization of access to RESTful MEC service APIs defined by ETSI ISG MEC. In case of service-producing applications defined by third parties, other mechanisms such as standalone use of JWT can be used to secure related APIs.</t>
@@ -7524,7 +7419,6 @@
           <t>SO11-063</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
       <c r="E143" t="inlineStr">
         <is>
           <t>OSS systems should be consistent with the ETSI NFV architectural framework ETSI GS NFV 002 and support the Os-Ma interface between the traditional OSS/BSS and the NFV management and orchestration (MANO) framework. Os-Ma interface uses OAuth for authentication and authorization.</t>
@@ -7556,7 +7450,6 @@
           <t>SO11-064</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
       <c r="E144" t="inlineStr">
         <is>
           <t>Lock-down of infrastructure: All interfaces on physical hosts are locked down to restrict access to trusted hosts, and there is no hard-coded configuration (e.g. virtual span ports or hard-coded MAC addresses) in the NFVI as these make it significantly harder to update and patch. Virtualisation hosts only open the minimum number of ports required and all ports and services are locked down and managed.</t>
@@ -7589,7 +7482,6 @@
           <t>SO11-065</t>
         </is>
       </c>
-      <c r="D145" t="inlineStr"/>
       <c r="E145" t="inlineStr">
         <is>
           <t>Protection against container escape:
@@ -7630,7 +7522,6 @@
           <t>SO11-066</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr"/>
       <c r="E146" t="inlineStr">
         <is>
           <t>When not under maintenance, local or remote system functions such as OAM CLI/GUI should not reveal confidential system internal data in the clear to users and administrators. Confidential system internal data includes authentication data (i.e. PINs, cryptographic keys, passwords, cookies) as well as other system internal data such as stack traces in error messages</t>
@@ -7661,7 +7552,6 @@
           <t>SO11-067</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr"/>
       <c r="E147" t="inlineStr">
         <is>
           <t>Sensitive data in persistent/temporary storage has restricted access and files are protected against manipulation</t>
@@ -7692,7 +7582,6 @@
           <t>SO11-068</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr"/>
       <c r="E148" t="inlineStr">
         <is>
           <t>If normal users are allowed to mount external file systems (locally or via the network), OS-level restrictions should be set properly to prevent privilege escalation or extended access permissions</t>
@@ -7723,7 +7612,6 @@
           <t>SO11-069</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr"/>
       <c r="E149" t="inlineStr">
         <is>
           <t>The hypervisor or CIS is configured to support multiple administration roles, and as a minimum there must be an admin role (highest privilege) and a separate operational role with minimal privileges.
@@ -7755,7 +7643,6 @@
           <t>SO11-070</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr"/>
       <c r="E150" t="inlineStr">
         <is>
           <t>Root user isn't used within VM or Containers except during initialization,
@@ -7790,7 +7677,6 @@
           <t>SO11-071</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr"/>
       <c r="E151" t="inlineStr">
         <is>
           <t xml:space="preserve">Sensitive information (e.g., private keys, critical configuration files, credentials) should never be published in a production VM/Container image. </t>
@@ -7821,7 +7707,6 @@
           <t>SO11-072</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr"/>
       <c r="E152" t="inlineStr">
         <is>
           <t xml:space="preserve">Adhering to zero-trust tenets. For example, as set out in NIST SP 800-207: 
@@ -7861,7 +7746,6 @@
           <t>SO11-073</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr"/>
       <c r="E153" t="inlineStr">
         <is>
           <t>Mutual authentication and cipher suite negotiation between SEPPs in roaming network</t>
@@ -7892,7 +7776,6 @@
           <t>SO11-074</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr"/>
       <c r="E154" t="inlineStr">
         <is>
           <t>Mutual authentication between the NEFs and application functions is based on certificates or pre-shared keys. When an application function resides outside the 3GPP MNO domain, mutual authentication is only based on client and server certificates with TLS. Cryptographic keys/certificates for TLS authentication are protected</t>
@@ -7923,7 +7806,6 @@
           <t>SO11-075</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr"/>
       <c r="E155" t="inlineStr">
         <is>
           <t>Access to the Management Plane shall be through a dedicated jump server and require Multi Factor Authentication, wherever feasible. Exceptions should follow a defined emergency access procedure.
@@ -7958,7 +7840,6 @@
           <t>SO11-076</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr"/>
       <c r="E156" t="inlineStr">
         <is>
           <t>Extensible Authentication Protocol (EAP) framework is used for secondary authentication</t>
@@ -7989,7 +7870,6 @@
           <t>SO11-077</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr"/>
       <c r="E157" t="inlineStr">
         <is>
           <t>Authentication via trusted and untrusted non-3GPP access is performed with vendor-specific EAP method "EAP-5G" in accordance with 3GPP technical specification 33.501, clauses 7.1, 7.2, and 7A</t>
@@ -8020,7 +7900,6 @@
           <t>SO11-078</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr"/>
       <c r="E158" t="inlineStr">
         <is>
           <t>S1-MME interface uses IKEv2 certificate based authentication as specified in TS 33.310</t>
@@ -8051,7 +7930,6 @@
           <t>SO11-079</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr"/>
       <c r="E159" t="inlineStr">
         <is>
           <t>X2-C interface uses IKEv2 certificate based authentication as specified in TS 33.310</t>
@@ -8082,7 +7960,6 @@
           <t>SO11-080</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr"/>
       <c r="E160" t="inlineStr">
         <is>
           <t>HSE performs key agreement with a BEST UE using either i) AKMA ii) 5G AKA or EAP-AKA' , or iii) proprietary key agreement protocol</t>
@@ -8113,7 +7990,6 @@
           <t>SO11-081</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr"/>
       <c r="E161" t="inlineStr">
         <is>
           <t>Remote management services such as SSH or RDP are disabled or not even installed within VMs or containers.
@@ -8152,7 +8028,6 @@
           <t>SO11-082</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr"/>
       <c r="E162" t="inlineStr">
         <is>
           <t>Network should support authenticated and unauthenticated IMS Emergency Sessions in accordance with 3GPP technical specification 33.501, clause 10.2</t>
@@ -8183,7 +8058,6 @@
           <t>SO11-083</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr"/>
       <c r="E163" t="inlineStr">
         <is>
           <t>Network should ensure security for UEs simultaneously connected to more than one NG-RAN node in accordance with 3GPP technical specification 33.501, clause 6.10</t>
@@ -8214,7 +8088,6 @@
           <t>SO11-084</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr"/>
       <c r="E164" t="inlineStr">
         <is>
           <t>Internal 5G core information such as SUPI, DNN, S-NSSAI is not disclosed by NEF to application functions residing outside the MNO domain</t>
@@ -8245,7 +8118,6 @@
           <t>SO11-085</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr"/>
       <c r="E165" t="inlineStr">
         <is>
           <t>Direct login as root or equivalent highest privileged user is limited to the system console only. Root user will not be allowed to login to the system remotely</t>
@@ -8276,7 +8148,6 @@
           <t>SO11-086</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr"/>
       <c r="E166" t="inlineStr">
         <is>
           <t xml:space="preserve">MEC systems comply with regulatory requirements for Lawful Interception (LI) data identified in national laws is retained. LI data is retained for a duration mandated by national laws. Secure protocols are used for delivery of retained data to regulatory agencies. LI data is provided in plaintext. LI data can be captured and retained for inbound roamers. Unauthorized parties (including employees) cannot detect if  an individual is a target of LI </t>
@@ -8307,7 +8178,6 @@
           <t>SO11-087</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr"/>
       <c r="E167" t="inlineStr">
         <is>
           <t>SMF provides a user plane security policy to the ng-eNB/gNB during PDU session establishment as specified in 3GPP TS 23.502</t>
@@ -8325,7 +8195,6 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr"/>
       <c r="B168" t="n">
         <v>2</v>
       </c>
@@ -8344,7 +8213,6 @@
           <t>Establish and maintain integrity of network and information systems and protect from viruses, code injections, and other malware that can alter the functionality of systems</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -8360,7 +8228,6 @@
           <t>SO12-001</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr"/>
       <c r="E169" t="inlineStr">
         <is>
           <t>Validate all input data before processing</t>
@@ -8391,7 +8258,6 @@
           <t>SO12-002</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr"/>
       <c r="E170" t="inlineStr">
         <is>
           <t>Processing of ICMPv4 and ICMPv6 packets which are not required for operation is disabled on the network product. Certain ICMP types should not be used by the network product by default but support can be enabled for debugging etc. These ICMP types must be identified in the network product documentation. Certain ICMP types are generally permitted and do not need separate documentation. Permitted, forbidden, and optional ICMP types are identified in TS 33.117, cl. 4.2.4.1.1.2</t>
@@ -8422,7 +8288,6 @@
           <t>SO12-003</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr"/>
       <c r="E171" t="inlineStr">
         <is>
           <t>IPv4 packets with unnecessary options or IPv6 packets with unnecessary extension headers are filtered and not processed</t>
@@ -8453,7 +8318,6 @@
           <t>SO12-004</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr"/>
       <c r="E172" t="inlineStr">
         <is>
           <t>Network Product validates, filters, escapes, and encodes user controllable input before it is used or output</t>
@@ -8484,7 +8348,6 @@
           <t>SO12-005</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
       <c r="E173" t="inlineStr">
         <is>
           <t>Network product has mechanisms for filtering incoming IP packets at the network and transport layer as defined in RFC 3871 and 3GPP TS 33.117, cl. 4.2.6.2.1. The network product provides an option to drop/discard/accept/account packets that match a filter rule. Filtering on the basis of any portion of the protocol header should be possible. Logging of packets that match a rule can be enabled/disabled</t>
@@ -8515,7 +8378,6 @@
           <t>SO12-006</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr"/>
       <c r="E174" t="inlineStr">
         <is>
           <t>A network device shall be not affected in its availability or robustness by incoming packets that are manipulated or differing from the norm. Robustness should be as effective for a large number of invalid packets as it is for small number of packets</t>
@@ -8546,7 +8408,6 @@
           <t>SO12-007</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr"/>
       <c r="E175" t="inlineStr">
         <is>
           <t xml:space="preserve">Checking against a whitelist/blacklist of permitted message type/sender identity combinations to ensure that the sender of a GTP-C based protocol message is authorized to send a message and the possibility to discard/accept/account for messages when the check is satisfied. If a network product does not support such checks, then it needs to be deployed together with a separate entity which provides such checking capability </t>
@@ -8577,7 +8438,6 @@
           <t>SO12-008</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr"/>
       <c r="E176" t="inlineStr">
         <is>
           <t xml:space="preserve">Checking against a whitelist/blacklist of permitted message type/sender identity combinations to ensure that the sender of a GTP-U based protocol message is authorized to send a message and the possibility to discard/accept/account for messages when the check is satisfied. If a network product does not support such checks, then it needs to be deployed together with a separate entity which provides such checking capability </t>
@@ -8608,7 +8468,6 @@
           <t>SO12-009</t>
         </is>
       </c>
-      <c r="D177" t="inlineStr"/>
       <c r="E177" t="inlineStr">
         <is>
           <t>Systems should not process IP packets if their source address is not reachable via the incoming interface. Use of "Reverse Path Filter" (RPF) provides one option to ensure such reachability checks</t>
@@ -8639,7 +8498,6 @@
           <t>SO12-010</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
       <c r="E178" t="inlineStr">
         <is>
           <t xml:space="preserve">Systems should support mechanisms for buffer overflow protection </t>
@@ -8670,7 +8528,6 @@
           <t>SO12-011</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr"/>
       <c r="E179" t="inlineStr">
         <is>
           <t>Parsers used by Network Functions (NF) should not execute JavaScript or any other code contained in JSON objects received on Service Based Interfaces (SBI). These parsers should not include any resources external to the received JSON object itself, such as files from the NF’s filesystem</t>
@@ -8701,7 +8558,6 @@
           <t>SO12-012</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr"/>
       <c r="E180" t="inlineStr">
         <is>
           <t>For data structures where values are accessible using names (sometimes referred to as keys), e.g. a JSON object, the name should be unique. The occurrence of the same name (or key) twice within such a structure is an error and such a message should be rejected. The valid format and range of values for each information element (IE), when applicable, should be defined unambiguously. API implementation should fulfill the requirements specified in 3GPP TS 29.501, cl. 6.2: for each message the number of leaf IEs should not exceed 16000, the maximum size of the JSON body of any HTTP request should not exceed 2 million bytes, and the maximum nesting depth of leaves should not exceed 32</t>
@@ -8732,7 +8588,6 @@
           <t>SO12-013</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
       <c r="E181" t="inlineStr">
         <is>
           <t>Network slice subnet template (NSST) is integrity protected and management systems should verify the source and integrity of the subnet template</t>
@@ -8763,7 +8618,6 @@
           <t>SO12-014</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
       <c r="E182" t="inlineStr">
         <is>
           <t>Log files must be protected from breaches of their confidentiality and integrity</t>
@@ -8794,7 +8648,6 @@
           <t>SO12-015</t>
         </is>
       </c>
-      <c r="D183" t="inlineStr"/>
       <c r="E183" t="inlineStr">
         <is>
           <t>Protection against application misbehavior and bugs with the use of techniques such as sandboxing, application-kernel isolation, and application permissions</t>
@@ -8825,7 +8678,6 @@
           <t>SO12-016</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr"/>
       <c r="E184" t="inlineStr">
         <is>
           <t>Monitoring of edge network nodes such as Signal Transfer Points (STPs) and Diameter Edge/Routing Agents (DEAs/DRAs) with firewalls or other tools to protect roaming attacks from SS7 and DIAMETER signaling vulnerabilities</t>
@@ -8856,7 +8708,6 @@
           <t>SO12-017</t>
         </is>
       </c>
-      <c r="D185" t="inlineStr"/>
       <c r="E185" t="inlineStr">
         <is>
           <t>Monitoring of core network elements such as such as Visitor Location Register (VLR) and Mobility Management Entity (MME) with firewalls or other tools to detect and prevent roaming attacks from SS7 and DIAMETER signaling vulnerabilities</t>
@@ -8887,7 +8738,6 @@
           <t>SO12-018</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
       <c r="E186" t="inlineStr">
         <is>
           <t>Separate physical infrastructure for critical network functions: Hosts are physically separated such that compromise of one physical host does not allow an attacker to impact a very large amount of virtualised network nodes, and a physical host’s risk profile is used to determine which workloads can be deployed on it. A physical host is not able to impact hosts in other host pools. For example, among other controls, spoofing VLAN/VXLANs of virtual networks is not allowed. 
@@ -8920,7 +8770,6 @@
           <t>SO12-019</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr"/>
       <c r="E187" t="inlineStr">
         <is>
           <t>Only containers or VMs with the same data classification level run on the same node.
@@ -8954,7 +8803,6 @@
           <t>SO12-020</t>
         </is>
       </c>
-      <c r="D188" t="inlineStr"/>
       <c r="E188" t="inlineStr">
         <is>
           <t>Threat detection or prevention and response using IDS/IPS should be used to effectively defend against or prevent malware and ransomware infections. Such threat detection or prevention and response should include NFVI and network functions.</t>
@@ -8992,7 +8840,6 @@
           <t>SO12-021</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr"/>
       <c r="E189" t="inlineStr">
         <is>
           <t>MNOs should monitor the BGP protocol, have the ability to detect potential hijacks, and have a procedure to respond appropriately when hijacks are detected. This response should extend to blocking traffic, if necessary, from being routed to the hijacked destination. MNOs should also ensure that the IP address space they own and relevant contact information are securely maintained in appropriate up to date registries.</t>
@@ -9025,7 +8872,6 @@
           <t>SO12-022</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr"/>
       <c r="E190" t="inlineStr">
         <is>
           <t>MNOs should implement filtering of Autonomous System (AS) prefixes and paths, both received and advertised, to control how traffic is routed and to protect against bogus prefixes. This is described in RFC 7454.  MNOs could also implement security mechanisms where appropriate, such as a Generalised TTL Security Mechanism (GTSM) as described in RFC 5082, as well as Resource Public Key Infrastructure (RPKI), which add authentication to the routing system using digital signatures.</t>
@@ -9064,7 +8910,6 @@
           <t>SO12-023</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr"/>
       <c r="E191" t="inlineStr">
         <is>
           <t>Service based interfaces (SBIs) of all network functions support transport layer security (TLS) (unless other countermeasures are used, such as physical security for local services on a single site) as profiled in 3GPP technical specifications: 33.210, clause 6.2 and 33.310, clause 6.2a. TLS is used for mutual authentication with certificates as well as for integrity and confidentiality protection of messages. Cryptographic keys/certificates for TLS authentication are protected</t>
@@ -9095,7 +8940,6 @@
           <t>SO12-024</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr"/>
       <c r="E192" t="inlineStr">
         <is>
           <t xml:space="preserve">SEPP meets end-to-end security requirements listed in 3GPP TS 33.501 for interconnection between networks </t>
@@ -9126,7 +8970,6 @@
           <t>SO12-025</t>
         </is>
       </c>
-      <c r="D193" t="inlineStr"/>
       <c r="E193" t="inlineStr">
         <is>
           <t>gNB implements IPsec ESP and IKEv2 certificate based authentication. When physical security is not provided, DTLS or a similar protection mechanism, such as IPSec, is implemented for integrity, confidentiality, and replay protection of E1, F1-U, F1-C, N2, N3, and Xn interfaces. Cryptographic keys/certificates for IKEv2 authentication are protected</t>
@@ -9157,7 +9000,6 @@
           <t>SO12-026</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr"/>
       <c r="E194" t="inlineStr">
         <is>
           <t>Transmission of data which needs protection uses industry standard network protocols with industry accepted algorithms. A protocol version without known vulnerabilities or a secure alternative protocol should be used</t>
@@ -9188,7 +9030,6 @@
           <t>SO12-027</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr"/>
       <c r="E195" t="inlineStr">
         <is>
           <t>Communication between web client and web server is protected using TLS (unless other countermeasures, such as physical security for local services on a single site, are used) as profiled in Annex E of TS 33.310 with the following additional requirement: cipher suites with NULL encryption shall not be supported. Cryptographic keys/certificates for TLS authentication are protected</t>
@@ -9219,7 +9060,6 @@
           <t>SO12-028</t>
         </is>
       </c>
-      <c r="D196" t="inlineStr"/>
       <c r="E196" t="inlineStr">
         <is>
           <t>DNS servers in the 3GPP network should support and use DNS over (D)TLS as specified in RFC 7858 and RFC 8310. Cryptographic keys/certificates for TLS authentication are protected</t>
@@ -9250,7 +9090,6 @@
           <t>SO12-029</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr"/>
       <c r="E197" t="inlineStr">
         <is>
           <t>Non-SBA interfaces internal to the 5G core (such as N4 and N9), as well as DIAMETER or GTP-based interfaces between the 5G Core and entities not part of the 5G System (such as Rx and N26) are protected with IPsec ESP and IKEv2 certificate-based authentication as specified in TS 33.510, cl. 9.1.2, unless security is provided by other means, such as physical security. Cryptographic keys/certificates for IKEv2 authentication in NDS/IP are protected</t>
@@ -9281,7 +9120,6 @@
           <t>SO12-030</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr"/>
       <c r="E198" t="inlineStr">
         <is>
           <t>Network should provide a mechanism for steering UEs to a preferred roamed-to network indicated by the HPLMN during and after registration in accordance with 3GPP technical specification 33.501, clause 6.14</t>
@@ -9312,7 +9150,6 @@
           <t>SO12-031</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr"/>
       <c r="E199" t="inlineStr">
         <is>
           <t>AMF state machines handling registration over 3GPP and non-3GPP access follow 3GPP technical specification 33.501, clause 6.8</t>
@@ -9343,7 +9180,6 @@
           <t>SO12-032</t>
         </is>
       </c>
-      <c r="D200" t="inlineStr"/>
       <c r="E200" t="inlineStr">
         <is>
           <t>Network ensures that security is maintained during UE mobility in accordance with 3GPP technical specification 33.501, clause 6.9 and 6.11</t>
@@ -9374,7 +9210,6 @@
           <t>SO12-033</t>
         </is>
       </c>
-      <c r="D201" t="inlineStr"/>
       <c r="E201" t="inlineStr">
         <is>
           <t>MNOs should ensure that UEs conceal the Subscription Permanent Identifier (SUPI) by using the ECIES profile A or B defined in 3GPP technical specification 33.501, clause 6.12 and Annex C. A null-scheme may be used in the following cases: (1) if the UE is making an unauthenticated emergency session and does not have a 5G-GUTI to the chosen PLMN, (2) if the home network has configured "null-scheme" to be used, or (3) if the home network has not provisioned the public key needed to generate a SUCI</t>
@@ -9405,7 +9240,6 @@
           <t>SO12-034</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr"/>
       <c r="E202" t="inlineStr">
         <is>
           <t>Isolation of distinct slices in the slice manager and restrictions on performing changes to parameters shared among slices belonging to different tenants</t>
@@ -9436,7 +9270,6 @@
           <t>SO12-035</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr"/>
       <c r="E203" t="inlineStr">
         <is>
           <t>Each interface of a MANO entity should use TLS for API communication to ensure integrity protection, replay protection, and confidentiality. Cryptographic keys/certificates for TLS authentication are protected</t>
@@ -9467,7 +9300,6 @@
           <t>SO12-036</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr"/>
       <c r="E204" t="inlineStr">
         <is>
           <t>Control plane data between NFV hosts is sent over an authenticated and encrypted channel with standard protocols. Cryptographic keys/certificates for authentication are protected</t>
@@ -9498,7 +9330,6 @@
           <t>SO12-037</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr"/>
       <c r="E205" t="inlineStr">
         <is>
           <t>SDN controller should not allow conflicting flow rules</t>
@@ -9529,7 +9360,6 @@
           <t>SO12-038</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr"/>
       <c r="E206" t="inlineStr">
         <is>
           <t>APIs for the SDN controller and applications should be secured</t>
@@ -9560,7 +9390,6 @@
           <t>SO12-039</t>
         </is>
       </c>
-      <c r="D207" t="inlineStr"/>
       <c r="E207" t="inlineStr">
         <is>
           <t>Operating systems hardening</t>
@@ -9591,7 +9420,6 @@
           <t>SO12-040</t>
         </is>
       </c>
-      <c r="D208" t="inlineStr"/>
       <c r="E208" t="inlineStr">
         <is>
           <t>Mutual authentication followed by confidentiality and integrity of messages on the Common API Framework (CAPIF) are ensured. Cryptographic keys/certificates for authentication are protected</t>
@@ -9622,7 +9450,6 @@
           <t>SO12-041</t>
         </is>
       </c>
-      <c r="D209" t="inlineStr"/>
       <c r="E209" t="inlineStr">
         <is>
           <t>Virtualization platform or container infrastructure is hardened using vendor-provided guidelines</t>
@@ -9653,7 +9480,6 @@
           <t>SO12-042</t>
         </is>
       </c>
-      <c r="D210" t="inlineStr"/>
       <c r="E210" t="inlineStr">
         <is>
           <t>VMs or containers in MEC are encrypted</t>
@@ -9684,7 +9510,6 @@
           <t>SO12-043</t>
         </is>
       </c>
-      <c r="D211" t="inlineStr"/>
       <c r="E211" t="inlineStr">
         <is>
           <t>MEC systems provide a secure environment for services of users, MNOs, third-party application providers, application developers, and platform vendors</t>
@@ -9715,7 +9540,6 @@
           <t>SO12-044</t>
         </is>
       </c>
-      <c r="D212" t="inlineStr"/>
       <c r="E212" t="inlineStr">
         <is>
           <t xml:space="preserve">User plane data is integrity-protected </t>
@@ -9746,7 +9570,6 @@
           <t>SO12-045</t>
         </is>
       </c>
-      <c r="D213" t="inlineStr"/>
       <c r="E213" t="inlineStr">
         <is>
           <t>End-to-end signaling security is used for DIAMETER signaling when physical security is not provided</t>
@@ -9777,7 +9600,6 @@
           <t>SO12-046</t>
         </is>
       </c>
-      <c r="D214" t="inlineStr"/>
       <c r="E214" t="inlineStr">
         <is>
           <t>Protections against ReVOLTE attacks are implemented</t>
@@ -9808,7 +9630,6 @@
           <t>SO12-047</t>
         </is>
       </c>
-      <c r="D215" t="inlineStr"/>
       <c r="E215" t="inlineStr">
         <is>
           <t>Bidding down should be prevented by including the replayed security capabilities of the UE in the Security Mode Command sent from the MME</t>
@@ -9839,7 +9660,6 @@
           <t>SO12-048</t>
         </is>
       </c>
-      <c r="D216" t="inlineStr"/>
       <c r="E216" t="inlineStr">
         <is>
           <t>eNBs should have a secure environment for storage of sensitive data and execution of sensitive functions</t>
@@ -9870,7 +9690,6 @@
           <t>SO12-049</t>
         </is>
       </c>
-      <c r="D217" t="inlineStr"/>
       <c r="E217" t="inlineStr">
         <is>
           <t>Protection against VM sprawl</t>
@@ -9901,7 +9720,6 @@
           <t>SO12-050</t>
         </is>
       </c>
-      <c r="D218" t="inlineStr"/>
       <c r="E218" t="inlineStr">
         <is>
           <t>SEAL-X1 interface between the SEAL key management server and the SEAL group management server is protected using HTTPS with TLS usage following the profile specified in clause 6.2a of  3GPP TS 33.310. Cryptographic keys/certificates for TLS authentication are protected</t>
@@ -9932,7 +9750,6 @@
           <t>SO12-051</t>
         </is>
       </c>
-      <c r="D219" t="inlineStr"/>
       <c r="E219" t="inlineStr">
         <is>
           <t>SEAL-X2 interface between the SEAL location management server and the SEAL group management server is protected using HTTPS with TLS usage following the profile specified in clause 6.2a of  3GPP TS 33.310. Cryptographic keys/certificates for TLS authentication are protected</t>
@@ -9963,7 +9780,6 @@
           <t>SO12-052</t>
         </is>
       </c>
-      <c r="D220" t="inlineStr"/>
       <c r="E220" t="inlineStr">
         <is>
           <t>i) SEAL-UU interface between the SEAL server and the SEAL client, ii) KM-UU interface between SEAL key management server and SEAL key management client, and iii) IM-UU interface between SEAL identity management server and SEAL identity management client are protected either using i) HTTPS with TLS following the profile specified in clause 6.2a of  3GPP TS 33.310, or ii) CoAP with OSCORE as profiled in RFC 8613 or iii) CoAP with DTLS/TLS as profiled in clause 6.2a of  3GPP TS 33.310. Cryptographic keys/certificates for TLS/DTLS/OSCORE authentication are protected</t>
@@ -9994,7 +9810,6 @@
           <t>SO12-053</t>
         </is>
       </c>
-      <c r="D221" t="inlineStr"/>
       <c r="E221" t="inlineStr">
         <is>
           <t>SEAL server authenticates and authorizes requests from VAL server using either i) Certificate based TLS authentication followed OAuth-based authorization following profiles in 3GPP technical specifications: 33.210, clause 6.2 and 33.310, clause 6.2a, or ii) CAPIF as specified in 3GPP technical specifications: 23.434 and TS 33.122, clause 6.5.2. Cryptographic keys/certificates for IKEv2, TLS, etc. authentication in NDS/IP are protected</t>
@@ -10025,7 +9840,6 @@
           <t>SO12-054</t>
         </is>
       </c>
-      <c r="D222" t="inlineStr"/>
       <c r="E222" t="inlineStr">
         <is>
           <t>SEAL-E interface between SEAL servers is protected with NDS/IP as specified in TS 33.210. Cryptographic keys/certificates for IKEv2, TLS, etc. authentication in NDS/IP are protected</t>
@@ -10056,7 +9870,6 @@
           <t>SO12-055</t>
         </is>
       </c>
-      <c r="D223" t="inlineStr"/>
       <c r="E223" t="inlineStr">
         <is>
           <t>Transfer of key material from SKM server to SKM client over HTTP are protected with TLS  as profiled in clause 6.2a of 3GPP TS 33.310</t>
@@ -10087,7 +9900,6 @@
           <t>SO12-056</t>
         </is>
       </c>
-      <c r="D224" t="inlineStr"/>
       <c r="E224" t="inlineStr">
         <is>
           <t>For container: controls to enforce isolation: 
@@ -10132,7 +9944,6 @@
           <t>SO12-057</t>
         </is>
       </c>
-      <c r="D225" t="inlineStr"/>
       <c r="E225" t="inlineStr">
         <is>
           <t>MNOs should follow recommendations and best practices from hardening guidelines, such as CIS benchmarks. In particular, on OSs, Docker, VMWARE, Kubernetes and cloud. They should follow the guidance in the CSA Security Guidance for Critical Areas of Focus in Cloud Computing.</t>
@@ -10164,7 +9975,6 @@
           <t>SO12-058</t>
         </is>
       </c>
-      <c r="D226" t="inlineStr"/>
       <c r="E226" t="inlineStr">
         <is>
           <t>Ensure the presence of minimal security features within the firmware (Low-level software components shipped with the hardware platform, including UEFI and legacy BIOSes or hardware components embedded software).
@@ -10203,7 +10013,6 @@
           <t>SO12-059</t>
         </is>
       </c>
-      <c r="D227" t="inlineStr"/>
       <c r="E227" t="inlineStr">
         <is>
           <t>The VIM should be configured to ensure that VNFs of differing trust levels are not deployed on the same physical host or blade, and that VNFs requiring a ‘hardware root of trust’ cannot be installed on a physical host or blade that does not fully support trusted boot (e.g. Intel-TXT) and TPM.</t>
@@ -10237,7 +10046,6 @@
           <t>SO12-060</t>
         </is>
       </c>
-      <c r="D228" t="inlineStr"/>
       <c r="E228" t="inlineStr">
         <is>
           <t>In the event of a VNF being attacked or compromised, it should be possible to isolate it from the production environment, and restore it to its state prior to the attack.
@@ -10280,7 +10088,6 @@
           <t>SO12-061</t>
         </is>
       </c>
-      <c r="D229" t="inlineStr"/>
       <c r="E229" t="inlineStr">
         <is>
           <t>A high availability architecture is implemented for key SDN components (e.g. SDN Controllers) to ensure operational service is maintained. The design should include primary and secondary IP links with, where possible, diverse routing to prevent a single point of network failure.</t>
@@ -10313,7 +10120,6 @@
           <t>SO12-062</t>
         </is>
       </c>
-      <c r="D230" t="inlineStr"/>
       <c r="E230" t="inlineStr">
         <is>
           <t>The orchestration layer and SDN must be architected so that SDN networks and NFV environments are not operationally dependent on the orchestration or MANO layer to maintain operating services under circumstances that may render the orchestration platform unavailable.</t>
@@ -10347,7 +10153,6 @@
           <t>SO12-063</t>
         </is>
       </c>
-      <c r="D231" t="inlineStr"/>
       <c r="E231" t="inlineStr">
         <is>
           <t xml:space="preserve">For the security protection at the transport layer on NFV interfaces, TLS (TLSv1.3 is recommended) shall be supported.
@@ -10393,7 +10198,6 @@
           <t>SO12-064</t>
         </is>
       </c>
-      <c r="D232" t="inlineStr"/>
       <c r="E232" t="inlineStr">
         <is>
           <t>For the security of MEC interfaces, IPsec for the N4 interface to protect the confidentiality and integrity of signaling data is implemented. The management interface provides a TLS channel for secure transmission, enabling data security on the management plane. The security deployment solution is provided to comprehensively protect MEC interfaces. For example, an IPsec gateway can be deployed on the N4/N3/N6/N9 interface for encrypted transmission of user data, and a firewall can be deployed on the MEC to defend against DDoS and other traffic attacks.</t>
@@ -10427,7 +10231,6 @@
           <t>SO12-065</t>
         </is>
       </c>
-      <c r="D233" t="inlineStr"/>
       <c r="E233" t="inlineStr">
         <is>
           <t xml:space="preserve">Network products validate software package integrity during installation/upgrade via cryptographic means, e.g. a digital
@@ -10459,7 +10262,6 @@
           <t>SO12-066</t>
         </is>
       </c>
-      <c r="D234" t="inlineStr"/>
       <c r="E234" t="inlineStr">
         <is>
           <t>Regular and effective patch management. Ideally, applying patches is fully automated.</t>
@@ -10490,7 +10292,6 @@
           <t>SO12-067</t>
         </is>
       </c>
-      <c r="D235" t="inlineStr"/>
       <c r="E235" t="inlineStr">
         <is>
           <t>Regular and effective vulnerability management program that includes vulnerability assessments on initial deployment and subsequent periodic scans for deployed network components. Security scans should cover the whole NFV, and not just the network functions layer.</t>
@@ -10522,7 +10323,6 @@
           <t>SO12-068</t>
         </is>
       </c>
-      <c r="D236" t="inlineStr"/>
       <c r="E236" t="inlineStr">
         <is>
           <t>Timely delivery and implementation of security patches to vulnerable components in accordance with industry best practices</t>
@@ -10553,7 +10353,6 @@
           <t>SO12-069</t>
         </is>
       </c>
-      <c r="D237" t="inlineStr"/>
       <c r="E237" t="inlineStr">
         <is>
           <t>Protect the integrity of the firmware code and data stored in flash memory. Modification of a firmware code should only result from a legitimate, signed update using robust cryptographic protocols. The installation of a signed update older than the version currently installed on the hardware platform shall be considered illegitimate by default (however, the platform owner should be able to disable this protection using the firmware configuration interface).</t>
@@ -10587,7 +10386,6 @@
           <t>SO12-070</t>
         </is>
       </c>
-      <c r="D238" t="inlineStr"/>
       <c r="E238" t="inlineStr">
         <is>
           <t>MANO is kept in sync about a VNF application software modification. Such a modification may be performed without requiring termination of the VNF instance with the prior VNF application software version.</t>
@@ -10618,7 +10416,6 @@
           <t>SO12-071</t>
         </is>
       </c>
-      <c r="D239" t="inlineStr"/>
       <c r="E239" t="inlineStr">
         <is>
           <t>MNOs should implement a Coordinated Vulnerability Disclosure (CVD) program, in line with industry good practices, and communicate it clearly so that security researchers and ethical hackers know how to inform them about potential vulnerabilities.</t>
@@ -10649,7 +10446,6 @@
           <t>SO12-072</t>
         </is>
       </c>
-      <c r="D240" t="inlineStr"/>
       <c r="E240" t="inlineStr">
         <is>
           <t>New or modified VNF service templates should be validated through a robust risk assessment to ensure that they adhere to specific security policies on interface security, security affinity/anti-affinity rules, NFV network zoning and application security.</t>
@@ -10681,7 +10477,6 @@
           <t>SO12-073</t>
         </is>
       </c>
-      <c r="D241" t="inlineStr"/>
       <c r="E241" t="inlineStr">
         <is>
           <t>The NFVI should be updated without impacting the network functionality. The NFVI is kept up to date (including firmware), to minimise security issues. If possible, automatically update the NFVI to minimise the time that the fabric is at risk if an issue is found.</t>
@@ -10713,7 +10508,6 @@
           <t>SO12-074</t>
         </is>
       </c>
-      <c r="D242" t="inlineStr"/>
       <c r="E242" t="inlineStr">
         <is>
           <t>NF service providers ensure integrity of the access token by verifying signature using the NRF's public key or verifying a MAC when using shared keys. NF providers further validate the fields in the access token such as scope, expiration time, etc.</t>
@@ -10744,7 +10538,6 @@
           <t>SO12-075</t>
         </is>
       </c>
-      <c r="D243" t="inlineStr"/>
       <c r="E243" t="inlineStr">
         <is>
           <t>AUSFs should implement Nausf_SoRProtection service in accordance with 3GPP technical specification 33.501, clause 14.1</t>
@@ -10775,7 +10568,6 @@
           <t>SO12-076</t>
         </is>
       </c>
-      <c r="D244" t="inlineStr"/>
       <c r="E244" t="inlineStr">
         <is>
           <t>AUSFs should implement Nausf_UPUProtection service in accordance with 3GPP technical specification 33.501, clause 14.1</t>
@@ -10806,7 +10598,6 @@
           <t>SO12-077</t>
         </is>
       </c>
-      <c r="D245" t="inlineStr"/>
       <c r="E245" t="inlineStr">
         <is>
           <t>SEPPs correctly replace information elements requiring encryption with the value "NULL" and create JSON patches with the encrypted values</t>
@@ -10837,7 +10628,6 @@
           <t>SO12-078</t>
         </is>
       </c>
-      <c r="D246" t="inlineStr"/>
       <c r="E246" t="inlineStr">
         <is>
           <t>SEPPs ensure that IEs requiring encryption are not inserted at a different location in the JSON object</t>
@@ -10868,7 +10658,6 @@
           <t>SO12-079</t>
         </is>
       </c>
-      <c r="D247" t="inlineStr"/>
       <c r="E247" t="inlineStr">
         <is>
           <t>Network products can boot only from the memory devices intended for this purpose</t>
@@ -10899,7 +10688,6 @@
           <t>SO12-080</t>
         </is>
       </c>
-      <c r="D248" t="inlineStr"/>
       <c r="E248" t="inlineStr">
         <is>
           <t>Security mechanism to guarantee that only authorized individuals can initiate and deploy a software update, and modify the list cryptographic credentials used for verifying software sources</t>
@@ -10930,7 +10718,6 @@
           <t>SO12-081</t>
         </is>
       </c>
-      <c r="D249" t="inlineStr"/>
       <c r="E249" t="inlineStr">
         <is>
           <t>Integrity protection of data store used for VNF and CNF images.</t>
@@ -10961,7 +10748,6 @@
           <t>SO12-082</t>
         </is>
       </c>
-      <c r="D250" t="inlineStr"/>
       <c r="E250" t="inlineStr">
         <is>
           <t>Host systems should implement Hardware-Based Root of Trust (HBRT) (e.g. TPM, HSM) which serves as the initial root of trust for sensitive virtualized components.
@@ -10996,7 +10782,6 @@
           <t>SO12-083</t>
         </is>
       </c>
-      <c r="D251" t="inlineStr"/>
       <c r="E251" t="inlineStr">
         <is>
           <t>VNF package integrity is validated by NFVO upon its reception using the signature generated and provided by the VNF Provider.
@@ -11036,7 +10821,6 @@
           <t>SO12-084</t>
         </is>
       </c>
-      <c r="D252" t="inlineStr"/>
       <c r="E252" t="inlineStr">
         <is>
           <t>Integrity and confidentiality protection of configuration interfaces and configuration data stored in SDN controller</t>
@@ -11067,7 +10851,6 @@
           <t>SO12-085</t>
         </is>
       </c>
-      <c r="D253" t="inlineStr"/>
       <c r="E253" t="inlineStr">
         <is>
           <t>The MME protects the Security Mode Command message with the integrity algorithm which has the highest priority according to the ordered lists</t>
@@ -11098,7 +10881,6 @@
           <t>SO12-086</t>
         </is>
       </c>
-      <c r="D254" t="inlineStr"/>
       <c r="E254" t="inlineStr">
         <is>
           <t>MME releases any established non-emergency bearers when the authentication of UE fails</t>
@@ -11129,7 +10911,6 @@
           <t>SO12-087</t>
         </is>
       </c>
-      <c r="D255" t="inlineStr"/>
       <c r="E255" t="inlineStr">
         <is>
           <t>NWDAF always determines a recent NF instance serving a UE before retrieving data related to it, unless, the NWDAF has already obtained this information due to recent operations related to this UE</t>
@@ -11160,7 +10941,6 @@
           <t>SO12-088</t>
         </is>
       </c>
-      <c r="D256" t="inlineStr"/>
       <c r="E256" t="inlineStr">
         <is>
           <t xml:space="preserve">The HMEE (e.g. Intel TXT, Trusted Execution Environments (TEE) like GlobalPlatform TEE, Intel SGX) is to be used for executing sensitive functions within the VNF, such as LI and information elements marked as private (e.g., the SIDF de-concealing the SUPI from the SUCI). Utilizing an HMEE within the NFVI may solve the issue of Virtual Network Function (VNF) isolation, memory introspection, and confidentiality of data-in-use in both virtualized and containerized environments. </t>
@@ -11191,7 +10971,6 @@
           <t>SO12-089</t>
         </is>
       </c>
-      <c r="D257" t="inlineStr"/>
       <c r="E257" t="inlineStr">
         <is>
           <t>A chain of trust (CoT) is established during the boot process of the NFVI. The chain is extended to include attestation of the VNF when it is first instantiated on top of the NFVI. After each step, the results of attestation and corresponding measurements are maintained by a verifier for subsequent access:
@@ -11231,7 +11010,6 @@
           <t>SO12-090</t>
         </is>
       </c>
-      <c r="D258" t="inlineStr"/>
       <c r="E258" t="inlineStr">
         <is>
           <t>Critical MEC components (e.g. security end points and crypto functions) need to be implemented in HMEEs (Hardware Mediated Execution Environments) e.g. Intel SGX or ARM TrustZone.</t>
@@ -11251,7 +11029,6 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="inlineStr"/>
       <c r="B259" t="n">
         <v>2</v>
       </c>
@@ -11270,7 +11047,6 @@
           <t>Ensure adequate use of encryption to prevent and/or minimise the impact of security incidents on users and on other networks and services</t>
         </is>
       </c>
-      <c r="F259" t="inlineStr"/>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -11286,7 +11062,6 @@
           <t>SO13-001</t>
         </is>
       </c>
-      <c r="D260" t="inlineStr"/>
       <c r="E260" t="inlineStr">
         <is>
           <t xml:space="preserve">NAS signaling should be confidentiality protected by the MME </t>
@@ -11317,7 +11092,6 @@
           <t>SO13-002</t>
         </is>
       </c>
-      <c r="D261" t="inlineStr"/>
       <c r="E261" t="inlineStr">
         <is>
           <t>All NAS signaling messages except those explicitly listed in TS 24.301 as exceptions should be integrity-protected</t>
@@ -11348,7 +11122,6 @@
           <t>SO13-003</t>
         </is>
       </c>
-      <c r="D262" t="inlineStr"/>
       <c r="E262" t="inlineStr">
         <is>
           <t>NAS NULL integrity with EIA0 is only used for emergency calls</t>
@@ -11379,7 +11152,6 @@
           <t>SO13-004</t>
         </is>
       </c>
-      <c r="D263" t="inlineStr"/>
       <c r="E263" t="inlineStr">
         <is>
           <t>eNB ensures confidentiality and integrity protection of control plane data on X2-C and S1-MME interfaces</t>
@@ -11410,7 +11182,6 @@
           <t>SO13-005</t>
         </is>
       </c>
-      <c r="D264" t="inlineStr"/>
       <c r="E264" t="inlineStr">
         <is>
           <t>eNB ensures confidentiality and integrity protection of user plane packets between the Uu reference point and the S1/X2 reference points</t>
@@ -11441,7 +11212,6 @@
           <t>SO13-006</t>
         </is>
       </c>
-      <c r="D265" t="inlineStr"/>
       <c r="E265" t="inlineStr">
         <is>
           <t>eNB protects the Security Mode Command message with the integrity and ciphering algorithms which have the highest priority according to the ordered lists</t>
@@ -11472,7 +11242,6 @@
           <t>SO13-007</t>
         </is>
       </c>
-      <c r="D266" t="inlineStr"/>
       <c r="E266" t="inlineStr">
         <is>
           <t>eNBs verify RRC integrity</t>
@@ -11503,7 +11272,6 @@
           <t>SO13-008</t>
         </is>
       </c>
-      <c r="D267" t="inlineStr"/>
       <c r="E267" t="inlineStr">
         <is>
           <t>AS NULL integrity with EIA0 is only used for emergency calls</t>
@@ -11534,7 +11302,6 @@
           <t>SO13-009</t>
         </is>
       </c>
-      <c r="D268" t="inlineStr"/>
       <c r="E268" t="inlineStr">
         <is>
           <t>NWDAF applies data masking on integration analysis of personal data</t>
@@ -11565,7 +11332,6 @@
           <t>SO13-010</t>
         </is>
       </c>
-      <c r="D269" t="inlineStr"/>
       <c r="E269" t="inlineStr">
         <is>
           <t>The hypervisor and/or CIS supports the encryption granularity down to per VM or per Container.
@@ -11600,7 +11366,6 @@
           <t>SO13-011</t>
         </is>
       </c>
-      <c r="D270" t="inlineStr"/>
       <c r="E270" t="inlineStr">
         <is>
           <t>VM or container swap encryption (e.g. dm-crypt linux based tool)</t>
@@ -11632,7 +11397,6 @@
           <t>SO13-012</t>
         </is>
       </c>
-      <c r="D271" t="inlineStr"/>
       <c r="E271" t="inlineStr">
         <is>
           <t>SIDF uses protection scheme indicator in the concealed identifier (SUCI) for determining which ECIES profile should be used for resolving the SUCI to the SUPI</t>
@@ -11663,7 +11427,6 @@
           <t>SO13-013</t>
         </is>
       </c>
-      <c r="D272" t="inlineStr"/>
       <c r="E272" t="inlineStr">
         <is>
           <t>Certificates for mutual authentication of network functions follow the profiles given in 3GPP technical specifications: 33.310 and 33.501</t>
@@ -11694,7 +11457,6 @@
           <t>SO13-014</t>
         </is>
       </c>
-      <c r="D273" t="inlineStr"/>
       <c r="E273" t="inlineStr">
         <is>
           <t>AMFs protect signaling messages with ciphering and integrity protection of NAS signaling messages using appropriate algorithms such as 128-NEA1 128-NIA1 standardized in 3GPP TS 33.501</t>
@@ -11725,7 +11487,6 @@
           <t>SO13-015</t>
         </is>
       </c>
-      <c r="D274" t="inlineStr"/>
       <c r="E274" t="inlineStr">
         <is>
           <t>AMFs reject registration request messages containing invalid or unacceptable UE security capabilities. For example: UE security capabilities message containing no integrity algorithms</t>
@@ -11756,7 +11517,6 @@
           <t>SO13-016</t>
         </is>
       </c>
-      <c r="D275" t="inlineStr"/>
       <c r="E275" t="inlineStr">
         <is>
           <t>Protect application layer messages on the N32 interface of SEPPs in different PLMN</t>
@@ -11787,7 +11547,6 @@
           <t>SO13-017</t>
         </is>
       </c>
-      <c r="D276" t="inlineStr"/>
       <c r="E276" t="inlineStr">
         <is>
           <t>SEPPs follow the JWS profile defined in 3GPP TS 33.210</t>
@@ -11818,7 +11577,6 @@
           <t>SO13-018</t>
         </is>
       </c>
-      <c r="D277" t="inlineStr"/>
       <c r="E277" t="inlineStr">
         <is>
           <t>SEPPs only use the ES256 algorithm with IPX entities</t>
@@ -11849,7 +11607,6 @@
           <t>SO13-019</t>
         </is>
       </c>
-      <c r="D278" t="inlineStr"/>
       <c r="E278" t="inlineStr">
         <is>
           <t>gNB implements ciphering algorithms NEA0, 128-NEA1, 128-NEA2, 128-NEA3 for ciphering of RRC signaling</t>
@@ -11880,7 +11637,6 @@
           <t>SO13-020</t>
         </is>
       </c>
-      <c r="D279" t="inlineStr"/>
       <c r="E279" t="inlineStr">
         <is>
           <t>gNB implements NIA0, 128-NIA1, 128-NIA2, 128-NIA3 algorithms with NIA0 disabled unless necessary by regulatory requirements for integrity and replay protection of RRC signaling</t>
@@ -11911,7 +11667,6 @@
           <t>SO13-021</t>
         </is>
       </c>
-      <c r="D280" t="inlineStr"/>
       <c r="E280" t="inlineStr">
         <is>
           <t>gNBs refresh keys KgNB, KRRC-enc, KRRC-int, KUP-int, and KUP-enc when the PDCP COUNT value is about to be re-used with the same Radio Bearer identity and with the same KgNB</t>
@@ -11942,7 +11697,6 @@
           <t>SO13-022</t>
         </is>
       </c>
-      <c r="D281" t="inlineStr"/>
       <c r="E281" t="inlineStr">
         <is>
           <t xml:space="preserve">In dual connectivity, a secondary node (SN) asks the master node (MN) to derive a fresh KSN when PDCP COUNT values are about to wrap around. While adding subsequent radio bearer(s) to the same SN, the MN assigns a new radio bearer identity that has not previously been used for the current KSN. If the MN cannot allocate an unused identity due to radio bearer identity space exhaustion, the MN shall increment the SN Counter and compute a fresh KSN which it then updates with SN modification procedure </t>
@@ -11973,7 +11727,6 @@
           <t>SO13-023</t>
         </is>
       </c>
-      <c r="D282" t="inlineStr"/>
       <c r="E282" t="inlineStr">
         <is>
           <t>IAB donor should support confidentiality, integrity, and replay protection of RRC-signalling between the IAB donor and the IAB-node (IAB-UE)</t>
@@ -12004,7 +11757,6 @@
           <t>SO13-024</t>
         </is>
       </c>
-      <c r="D283" t="inlineStr"/>
       <c r="E283" t="inlineStr">
         <is>
           <t>Slice management interface messages have replay protection, integrity protection, and confidentiality</t>
@@ -12035,7 +11787,6 @@
           <t>SO13-025</t>
         </is>
       </c>
-      <c r="D284" t="inlineStr"/>
       <c r="E284" t="inlineStr">
         <is>
           <t>Supervision and performance reporting of a Network Slice Instance (NSI) should at least be integrity protected and may additionally be confidentiality protected</t>
@@ -12066,7 +11817,6 @@
           <t>SO13-026</t>
         </is>
       </c>
-      <c r="D285" t="inlineStr"/>
       <c r="E285" t="inlineStr">
         <is>
           <t>Network slice subnet template (NSST) should be confidentiality protected</t>
@@ -12097,7 +11847,6 @@
           <t>SO13-027</t>
         </is>
       </c>
-      <c r="D286" t="inlineStr"/>
       <c r="E286" t="inlineStr">
         <is>
           <t>Negotiation of slice characteristics such as bandwidth, latency, and reliability between a communication service customer and an MNO should have replay, integrity, and confidentiality protection with TLS. Version 1.2 or 1.3 of TLS are recommended. Cryptographic keys/certificates for TLS authentication are protected</t>
@@ -12128,7 +11877,6 @@
           <t>SO13-028</t>
         </is>
       </c>
-      <c r="D287" t="inlineStr"/>
       <c r="E287" t="inlineStr">
         <is>
           <t>Interconnect traffic between data centers should be authenticated and encrypted</t>
@@ -12159,7 +11907,6 @@
           <t>SO13-029</t>
         </is>
       </c>
-      <c r="D288" t="inlineStr"/>
       <c r="E288" t="inlineStr">
         <is>
           <t>Configuration and user profile data sent from the VAL server in the network to a VAL UE is integrity, confidentiality, and replay protected</t>
@@ -12190,7 +11937,6 @@
           <t>SO13-030</t>
         </is>
       </c>
-      <c r="D289" t="inlineStr"/>
       <c r="E289" t="inlineStr">
         <is>
           <t>Control and user plane EMSDP messages between the HSE and BEST UE are integrity protected protected with algorithms such as 128-NIA1, 128-NIA2 or 128-NIA3</t>
@@ -12221,7 +11967,6 @@
           <t>SO13-031</t>
         </is>
       </c>
-      <c r="D290" t="inlineStr"/>
       <c r="E290" t="inlineStr">
         <is>
           <t>Control and user plane EMSDP messages between the HSE and BEST UE are confidentiality protected protected with algorithms such as 128-NEA1, 128-NEA2 or 128-NEA3</t>
@@ -12252,7 +11997,6 @@
           <t>SO13-032</t>
         </is>
       </c>
-      <c r="D291" t="inlineStr"/>
       <c r="E291" t="inlineStr">
         <is>
           <t>Support for NIA0 integrity protection is disabled in AMF unless support for unauthenticated emergency session is a regulatory requirement</t>
@@ -12283,7 +12027,6 @@
           <t>SO13-033</t>
         </is>
       </c>
-      <c r="D292" t="inlineStr"/>
       <c r="E292" t="inlineStr">
         <is>
           <t>During the handover, if the AMF changes, the target AMF selects the NAS algorithm with the highest priority in the ordered list of the UE security capabilities</t>
@@ -12314,7 +12057,6 @@
           <t>SO13-034</t>
         </is>
       </c>
-      <c r="D293" t="inlineStr"/>
       <c r="E293" t="inlineStr">
         <is>
           <t>gNB verify RRC and user plane integrity</t>
@@ -12345,7 +12087,6 @@
           <t>SO13-035</t>
         </is>
       </c>
-      <c r="D294" t="inlineStr"/>
       <c r="E294" t="inlineStr">
         <is>
           <t>gNB activates ciphering of user data based on security policy sent by the SMF</t>
@@ -12376,7 +12117,6 @@
           <t>SO13-036</t>
         </is>
       </c>
-      <c r="D295" t="inlineStr"/>
       <c r="E295" t="inlineStr">
         <is>
           <t>gNB ensures integrity of user data based on security policy sent by the SMF</t>
@@ -12407,7 +12147,6 @@
           <t>SO13-037</t>
         </is>
       </c>
-      <c r="D296" t="inlineStr"/>
       <c r="E296" t="inlineStr">
         <is>
           <t>gNB selects the ciphering and integrity algorithm with the highest priority from the UE's 5G security capabilities and locally configured list of algorithms</t>
@@ -12425,7 +12164,6 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="inlineStr"/>
       <c r="B297" t="n">
         <v>2</v>
       </c>
@@ -12444,7 +12182,6 @@
           <t>Ensure that cryptographic key material and secret authentication information are adequately protected</t>
         </is>
       </c>
-      <c r="F297" t="inlineStr"/>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -12460,7 +12197,6 @@
           <t>SO14-001</t>
         </is>
       </c>
-      <c r="D298" t="inlineStr"/>
       <c r="E298" t="inlineStr">
         <is>
           <t>Protect the Home Network private key from physical attacks in the UDM</t>
@@ -12491,7 +12227,6 @@
           <t>SO14-002</t>
         </is>
       </c>
-      <c r="D299" t="inlineStr"/>
       <c r="E299" t="inlineStr">
         <is>
           <t>The algorithm for subscriber privacy (SUCI to SUPI mapping) is executed in the secure environment of the UDM</t>
@@ -12522,7 +12257,6 @@
           <t>SO14-003</t>
         </is>
       </c>
-      <c r="D300" t="inlineStr"/>
       <c r="E300" t="inlineStr">
         <is>
           <t>UDM logs the authentication status and timestamp of subscriber authentication, in particular when the subscriber is in a visited network</t>
@@ -12553,7 +12287,6 @@
           <t>SO14-004</t>
         </is>
       </c>
-      <c r="D301" t="inlineStr"/>
       <c r="E301" t="inlineStr">
         <is>
           <t>Subscription permanent identifier (SUPI) is encrypted to derive the Subscription Concealed Identifier (SUCI) using a non-null protection scheme by default. A null-scheme may be used in the following cases: (1) if the UE is making an unauthenticated emergency session and does not have a 5G-GUTI to the chosen PLMN, (2) if the home network has configured "null-scheme" to be used, or (3) if the home network has not provisioned the public key needed to generate a SUCI</t>
@@ -12584,7 +12317,6 @@
           <t>SO14-005</t>
         </is>
       </c>
-      <c r="D302" t="inlineStr"/>
       <c r="E302" t="inlineStr">
         <is>
           <t xml:space="preserve">Key hierarchy defined in technical specification 33.501, clause 6.2 and Annex A is followed for deriving and distributing keys KAUSF, KSEAF, KAMF, KgNB, and KN3IWF </t>
@@ -12615,7 +12347,6 @@
           <t>SO14-006</t>
         </is>
       </c>
-      <c r="D303" t="inlineStr"/>
       <c r="E303" t="inlineStr">
         <is>
           <t>Security of the User ID and credentials used for slice specific authorization and authentication is ensured during transfer and network storage</t>
@@ -12646,7 +12377,6 @@
           <t>SO14-007</t>
         </is>
       </c>
-      <c r="D304" t="inlineStr"/>
       <c r="E304" t="inlineStr">
         <is>
           <t>Secure transfer of UICC (or eUICC) credentials from the UICC manufacturer</t>
@@ -12677,7 +12407,6 @@
           <t>SO14-008</t>
         </is>
       </c>
-      <c r="D305" t="inlineStr"/>
       <c r="E305" t="inlineStr">
         <is>
           <t>SEPPs clearly differentiate between certificates used for authentication of peer SEPPs and certificates used for authentication of intermediates performing message modifications</t>
@@ -12708,7 +12437,6 @@
           <t>SO14-009</t>
         </is>
       </c>
-      <c r="D306" t="inlineStr"/>
       <c r="E306" t="inlineStr">
         <is>
           <t>AKMA Application Key (KAF) has a maximum lifetime</t>
@@ -12739,7 +12467,6 @@
           <t>SO14-010</t>
         </is>
       </c>
-      <c r="D307" t="inlineStr"/>
       <c r="E307" t="inlineStr">
         <is>
           <t xml:space="preserve">SDN controller and NFV Security Manager (NSM) should have a key and certificate management system which includes key generation, storage, deletion and cryptographic processing.  </t>
@@ -12770,7 +12497,6 @@
           <t>SO14-011</t>
         </is>
       </c>
-      <c r="D308" t="inlineStr"/>
       <c r="E308" t="inlineStr">
         <is>
           <t xml:space="preserve">The hypervisor and/or CIS supports an external key management. Interface with the key management system is done through a standardized protocol. At least Key Management Interoperability Protocol (KMIP) as defined by OASIS KMIP SPEC should be supported. The key management system uses a tamper resistant module, such as HSM. The tamper-resistant module storing the key(s) shall be certified e.g. Common Criteria, FIPS 140-2 Level 3.   </t>
@@ -12803,7 +12529,6 @@
           <t>SO14-012</t>
         </is>
       </c>
-      <c r="D309" t="inlineStr"/>
       <c r="E309" t="inlineStr">
         <is>
           <t>In NFV, the components to employ certificates include:
@@ -12842,7 +12567,6 @@
           <t>SO14-013</t>
         </is>
       </c>
-      <c r="D310" t="inlineStr"/>
       <c r="E310" t="inlineStr">
         <is>
           <t>Any vendor default (e.g. self-signed) certificates should be removed and replaced with MNO generated certificates for NFV.
@@ -12881,7 +12605,6 @@
           <t>SO14-014</t>
         </is>
       </c>
-      <c r="D311" t="inlineStr"/>
       <c r="E311" t="inlineStr">
         <is>
           <t>Predefined or default accounts are deleted or disabled</t>
@@ -12912,7 +12635,6 @@
           <t>SO14-015</t>
         </is>
       </c>
-      <c r="D312" t="inlineStr"/>
       <c r="E312" t="inlineStr">
         <is>
           <t xml:space="preserve">Password change is only possible if documented password complexity criteria is met. Password change is enforced after initial login. Users can change password at any time. Captcha's and timers are used to prevent repeated login attempts. Accounts are blocked after a certain number of failed attempts. Passwords are hidden, for example, by replacing individual characters with *
@@ -12931,7 +12653,6 @@
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr"/>
       <c r="B313" t="n">
         <v>1</v>
       </c>
@@ -12950,10 +12671,8 @@
           <t>D4 covers operational procedures, change management and asset management</t>
         </is>
       </c>
-      <c r="F313" t="inlineStr"/>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr"/>
       <c r="B314" t="n">
         <v>2</v>
       </c>
@@ -12972,7 +12691,6 @@
           <t>Establish and maintain operational procedures for the operation of critical network and information systems by personnel</t>
         </is>
       </c>
-      <c r="F314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -12988,7 +12706,6 @@
           <t>SO15-001</t>
         </is>
       </c>
-      <c r="D315" t="inlineStr"/>
       <c r="E315" t="inlineStr">
         <is>
           <t>Map and analyze resource requirements for end-to-end 5G network lifecycle. Such analysis should identify critical dependencies that may impact availability or continuity of 5G network service as well as corresponding mitigation measures</t>
@@ -13019,7 +12736,6 @@
           <t>SO15-002</t>
         </is>
       </c>
-      <c r="D316" t="inlineStr"/>
       <c r="E316" t="inlineStr">
         <is>
           <t>Adequate resource capability delivery management process should be ensured</t>
@@ -13050,7 +12766,6 @@
           <t>SO15-003</t>
         </is>
       </c>
-      <c r="D317" t="inlineStr"/>
       <c r="E317" t="inlineStr">
         <is>
           <t>Adequate processes to support resource trouble management</t>
@@ -13081,7 +12796,6 @@
           <t>SO15-004</t>
         </is>
       </c>
-      <c r="D318" t="inlineStr"/>
       <c r="E318" t="inlineStr">
         <is>
           <t>Security management processes should be used for operational deployment considerations</t>
@@ -13112,7 +12826,6 @@
           <t>SO15-005</t>
         </is>
       </c>
-      <c r="D319" t="inlineStr"/>
       <c r="E319" t="inlineStr">
         <is>
           <t>Network product only runs protocols and services which are needed for its operation, and which do not have any known security vulnerabilities. By default: FTP, TFTP, telnet, SNMP v1 and v2, rlogin, RCP, RSH, SSHv1, finger, HTTP, BOOTP,  discovery protocols (LLDP, CDP), Identd, PAD, MOP, and TCP/UDP small servers (Echo, Chargen, Discard and Daytime) are disabled except if services are needed during deployment (in which case, those services are disabled after deployment)</t>
@@ -13143,7 +12856,6 @@
           <t>SO15-006</t>
         </is>
       </c>
-      <c r="D320" t="inlineStr"/>
       <c r="E320" t="inlineStr">
         <is>
           <t xml:space="preserve">Kernel based network functions not needed for the operation of the network element should be deactivated. Kernel functions such as IP packet forwarding, proxy ARP, gratuitous ARP, IPv4 multicast handling, and directed broadcast are deactivated unless needed in certain deployments </t>
@@ -13174,7 +12886,6 @@
           <t>SO15-007</t>
         </is>
       </c>
-      <c r="D321" t="inlineStr"/>
       <c r="E321" t="inlineStr">
         <is>
           <t>Network products should not automatically launch any application when removable media device such as CD-, DVD-, USB-Sticks or USB-storage drives are connected. If the operating system of the network product supports an automatic launch, it should be deactivated unless it is needed for availability requirements</t>
@@ -13205,7 +12916,6 @@
           <t>SO15-008</t>
         </is>
       </c>
-      <c r="D322" t="inlineStr"/>
       <c r="E322" t="inlineStr">
         <is>
           <t>Directory listings (indexing)/Directory browsing is deactivated in all web server components</t>
@@ -13236,7 +12946,6 @@
           <t>SO15-009</t>
         </is>
       </c>
-      <c r="D323" t="inlineStr"/>
       <c r="E323" t="inlineStr">
         <is>
           <t>HTTP header does not include information about the version of the web server and the modules/add-ons used</t>
@@ -13267,7 +12976,6 @@
           <t>SO15-010</t>
         </is>
       </c>
-      <c r="D324" t="inlineStr"/>
       <c r="E324" t="inlineStr">
         <is>
           <t>User-defined error pages should not include version information about the web server and the modules/add-ons used. Error messages should not information such as internal server names, error codes, etc. Default error pages of the web server should be replaced by error pages defined by the vendor</t>
@@ -13298,7 +13006,6 @@
           <t>SO15-011</t>
         </is>
       </c>
-      <c r="D325" t="inlineStr"/>
       <c r="E325" t="inlineStr">
         <is>
           <t>File type- or script-mappings that are not required should be deleted, e.g. php, phtml, js, sh, csh, bin, exe, pl, vbe, vbs</t>
@@ -13329,7 +13036,6 @@
           <t>SO15-012</t>
         </is>
       </c>
-      <c r="D326" t="inlineStr"/>
       <c r="E326" t="inlineStr">
         <is>
           <t>Restrictive access rights are assigned to all files which are directly or indirectly (e.g. via links or in virtual directories) in the web server's document directory. A web server should not have access to files which are not meant to be delivered</t>
@@ -13360,7 +13066,6 @@
           <t>SO15-013</t>
         </is>
       </c>
-      <c r="D327" t="inlineStr"/>
       <c r="E327" t="inlineStr">
         <is>
           <t>If CGI or other scripting technology is used, only the scripting directory should have execute rights. Other directories used or meant for web content should not have execute rights</t>
@@ -13391,7 +13096,6 @@
           <t>SO15-014</t>
         </is>
       </c>
-      <c r="D328" t="inlineStr"/>
       <c r="E328" t="inlineStr">
         <is>
           <t>Web server process should not run with system privileges. Even if the web server process is started by a user with system privileges, execution should be transferred to a different user without system privileges after the start</t>
@@ -13422,7 +13126,6 @@
           <t>SO15-015</t>
         </is>
       </c>
-      <c r="D329" t="inlineStr"/>
       <c r="E329" t="inlineStr">
         <is>
           <t>HTTP methods not required should be deactivated. Standard requests to web servers should only use GET, HEAD, and POST. If other methods are required, they should not introduce security leaks such as TRACK or TRACE</t>
@@ -13453,7 +13156,6 @@
           <t>SO15-016</t>
         </is>
       </c>
-      <c r="D330" t="inlineStr"/>
       <c r="E330" t="inlineStr">
         <is>
           <t>All optional add-ons and components of the web server which are not needed should be deactivated. In particular, components such as CGI or other scripting components, Server Side Includes (SSI), and WebDAV shall be deactivated if they are not required</t>
@@ -13484,7 +13186,6 @@
           <t>SO15-017</t>
         </is>
       </c>
-      <c r="D331" t="inlineStr"/>
       <c r="E331" t="inlineStr">
         <is>
           <t>If CGI (Common Gateway Interface) or other scripting technologies (including PERL, PHP, and others) are used, the scripting directory should not include compilers or interpreters</t>
@@ -13515,7 +13216,6 @@
           <t>SO15-018</t>
         </is>
       </c>
-      <c r="D332" t="inlineStr"/>
       <c r="E332" t="inlineStr">
         <is>
           <t>If CGI or other scripting technology is used, the associated CGI/script directory shall not be used for uploads</t>
@@ -13546,7 +13246,6 @@
           <t>SO15-019</t>
         </is>
       </c>
-      <c r="D333" t="inlineStr"/>
       <c r="E333" t="inlineStr">
         <is>
           <t>If Server Side Includes (SSI) is active, the execution of system commands should be deactivated</t>
@@ -13577,7 +13276,6 @@
           <t>SO15-020</t>
         </is>
       </c>
-      <c r="D334" t="inlineStr"/>
       <c r="E334" t="inlineStr">
         <is>
           <t>Access rights for web server configuration files are only granted to the owner of the web server process or to a user with system privileges</t>
@@ -13608,7 +13306,6 @@
           <t>SO15-021</t>
         </is>
       </c>
-      <c r="D335" t="inlineStr"/>
       <c r="E335" t="inlineStr">
         <is>
           <t>Default content (examples, help files, documentation, aliases) provided with the standard installation of the web server should be removed</t>
@@ -13639,7 +13336,6 @@
           <t>SO15-022</t>
         </is>
       </c>
-      <c r="D336" t="inlineStr"/>
       <c r="E336" t="inlineStr">
         <is>
           <t>Network products should support physical or logical separation of traffic belonging to different network domains. For example, O&amp;M traffic and control plane traffic belong to different network domains and must be separated</t>
@@ -13670,7 +13366,6 @@
           <t>SO15-023</t>
         </is>
       </c>
-      <c r="D337" t="inlineStr"/>
       <c r="E337" t="inlineStr">
         <is>
           <t>VNFs should synchronize with trusted time sources. 
@@ -13707,7 +13402,6 @@
           <t>SO15-024</t>
         </is>
       </c>
-      <c r="D338" t="inlineStr"/>
       <c r="E338" t="inlineStr">
         <is>
           <t>Proper maintenance of equipment in data centers</t>
@@ -13738,7 +13432,6 @@
           <t>SO15-025</t>
         </is>
       </c>
-      <c r="D339" t="inlineStr"/>
       <c r="E339" t="inlineStr">
         <is>
           <t>Network products should use secure firmware images</t>
@@ -13769,7 +13462,6 @@
           <t>SO15-026</t>
         </is>
       </c>
-      <c r="D340" t="inlineStr"/>
       <c r="E340" t="inlineStr">
         <is>
           <t>MNO correctly manages the design of any improvements or changes to the operational support processes for new resource capabilities and infrastructure</t>
@@ -13800,7 +13492,6 @@
           <t>SO15-027</t>
         </is>
       </c>
-      <c r="D341" t="inlineStr"/>
       <c r="E341" t="inlineStr">
         <is>
           <t>Ensure that relevant requirements are met and prerequisites are in place before new resource infrastructure is deployed and handed over to operations</t>
@@ -13831,7 +13522,6 @@
           <t>SO15-028</t>
         </is>
       </c>
-      <c r="D342" t="inlineStr"/>
       <c r="E342" t="inlineStr">
         <is>
           <t>Resource specifications for 5G components should be developed</t>
@@ -13862,7 +13552,6 @@
           <t>SO15-029</t>
         </is>
       </c>
-      <c r="D343" t="inlineStr"/>
       <c r="E343" t="inlineStr">
         <is>
           <t>Adequate processes for resource provisioning should be in place</t>
@@ -13893,7 +13582,6 @@
           <t>SO15-030</t>
         </is>
       </c>
-      <c r="D344" t="inlineStr"/>
       <c r="E344" t="inlineStr">
         <is>
           <t>Adequate processes to support resource performance management</t>
@@ -13924,7 +13612,6 @@
           <t>SO15-031</t>
         </is>
       </c>
-      <c r="D345" t="inlineStr"/>
       <c r="E345" t="inlineStr">
         <is>
           <t>The number of allowed processes and resources within a VM or container is precisely defined and limited to the value stipulated in the VNF descriptor.
@@ -13946,7 +13633,6 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" t="inlineStr"/>
       <c r="B346" t="n">
         <v>2</v>
       </c>
@@ -13965,7 +13651,6 @@
           <t>Establish change management procedures for critical network and information systems in order to minimise the likelihood of incidents resulting from changes</t>
         </is>
       </c>
-      <c r="F346" t="inlineStr"/>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -13981,7 +13666,6 @@
           <t>SO16-001</t>
         </is>
       </c>
-      <c r="D347" t="inlineStr"/>
       <c r="E347" t="inlineStr">
         <is>
           <t>Integration process of existing legacy infrastructure with the new resource infrastructure should be robust</t>
@@ -14012,7 +13696,6 @@
           <t>SO16-002</t>
         </is>
       </c>
-      <c r="D348" t="inlineStr"/>
       <c r="E348" t="inlineStr">
         <is>
           <t>Use of software development lifecycle best practices such as Agile, Continuous Integration/Continuous Development (CI/CD), and DevSecOps by MNO</t>
@@ -14043,7 +13726,6 @@
           <t>SO16-003</t>
         </is>
       </c>
-      <c r="D349" t="inlineStr"/>
       <c r="E349" t="inlineStr">
         <is>
           <t>Resource deployment, upgrade, and change should be managed. Impact assessments before system changes are made. Changes implemented are recorded, irregularities encountered are investigated and reported to competent authorities</t>
@@ -14061,7 +13743,6 @@
       </c>
     </row>
     <row r="350">
-      <c r="A350" t="inlineStr"/>
       <c r="B350" t="n">
         <v>2</v>
       </c>
@@ -14080,7 +13761,6 @@
           <t>Establish and maintain asset management procedures and configuration controls in order to manage availability of critical assets and configurations of critical network and information systems</t>
         </is>
       </c>
-      <c r="F350" t="inlineStr"/>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -14096,7 +13776,6 @@
           <t>SO17-001</t>
         </is>
       </c>
-      <c r="D351" t="inlineStr"/>
       <c r="E351" t="inlineStr">
         <is>
           <t>Unused software components/libraries which are not needed for operation or functionality of the network product are not installed or are deleted after installation. This includes also parts of a software, which will be
@@ -14128,7 +13807,6 @@
           <t>SO17-002</t>
         </is>
       </c>
-      <c r="D352" t="inlineStr"/>
       <c r="E352" t="inlineStr">
         <is>
           <t xml:space="preserve">Unused software should be deleted or deinstalled. If that is not possible, such functions should be permanently deactivated in the configuration and they should not be reactivated after reboot. Hardware functions which are not required for operation or function of the system (e.g. unused interfaces) should be deactivated permanently </t>
@@ -14159,7 +13837,6 @@
           <t>SO17-003</t>
         </is>
       </c>
-      <c r="D353" t="inlineStr"/>
       <c r="E353" t="inlineStr">
         <is>
           <t>Network product does not contain software and hardware components that are no longer supported by their vendor, producer, or developer</t>
@@ -14190,7 +13867,6 @@
           <t>SO17-004</t>
         </is>
       </c>
-      <c r="D354" t="inlineStr"/>
       <c r="E354" t="inlineStr">
         <is>
           <t>Configuration management including careful planning, detailed documentation, configuration review, testing before production, and periodic security configuration checks</t>
@@ -14222,7 +13898,6 @@
           <t>SO17-005</t>
         </is>
       </c>
-      <c r="D355" t="inlineStr"/>
       <c r="E355" t="inlineStr">
         <is>
           <t>Instantiation of MANO components and managed entities is only possible in explicit geographic locations. Support for attribute-based access control and multi-factor authentication where location is one of the attributes/factors</t>
@@ -14253,7 +13928,6 @@
           <t>SO17-006</t>
         </is>
       </c>
-      <c r="D356" t="inlineStr"/>
       <c r="E356" t="inlineStr">
         <is>
           <t>Storage media should be sanitized</t>
@@ -14284,7 +13958,6 @@
           <t>SO17-007</t>
         </is>
       </c>
-      <c r="D357" t="inlineStr"/>
       <c r="E357" t="inlineStr">
         <is>
           <t>Resource exit should be managed</t>
@@ -14315,7 +13988,6 @@
           <t>SO17-008</t>
         </is>
       </c>
-      <c r="D358" t="inlineStr"/>
       <c r="E358" t="inlineStr">
         <is>
           <t>Adequate processes for resource inventory and physical/virtual asset management</t>
@@ -14346,7 +14018,6 @@
           <t>SO17-009</t>
         </is>
       </c>
-      <c r="D359" t="inlineStr"/>
       <c r="E359" t="inlineStr">
         <is>
           <t>Adequate processes for resource allocation and installation should be used</t>
@@ -14377,7 +14048,6 @@
           <t>SO17-010</t>
         </is>
       </c>
-      <c r="D360" t="inlineStr"/>
       <c r="E360" t="inlineStr">
         <is>
           <t>Adequate processes for configuring and activating resources should be used</t>
@@ -14408,7 +14078,6 @@
           <t>SO17-011</t>
         </is>
       </c>
-      <c r="D361" t="inlineStr"/>
       <c r="E361" t="inlineStr">
         <is>
           <t>Resource provisioning should be tracked and managed</t>
@@ -14439,7 +14108,6 @@
           <t>SO17-012</t>
         </is>
       </c>
-      <c r="D362" t="inlineStr"/>
       <c r="E362" t="inlineStr">
         <is>
           <t>Proper management of supplier inventory should be ensured</t>
@@ -14470,7 +14138,6 @@
           <t>SO17-013</t>
         </is>
       </c>
-      <c r="D363" t="inlineStr"/>
       <c r="E363" t="inlineStr">
         <is>
           <t xml:space="preserve">Only currently supported software (applications, host OSs; hypervisors or CISs) is designated as authorized in the software inventory for NFV. Any unsupported software is designated as unauthorized. 
@@ -14503,7 +14170,6 @@
           <t>SO17-014</t>
         </is>
       </c>
-      <c r="D364" t="inlineStr"/>
       <c r="E364" t="inlineStr">
         <is>
           <t>Containers or VMs that are no longer needed are deleted.
@@ -14525,7 +14191,6 @@
       </c>
     </row>
     <row r="365">
-      <c r="A365" t="inlineStr"/>
       <c r="B365" t="n">
         <v>1</v>
       </c>
@@ -14544,10 +14209,8 @@
           <t xml:space="preserve">D5 covers detection of, response to, incident reporting, and communication about incidents. Art.2 (42) of EECC defines ‘Security Incident’ as an event having an actual adverse effect on the security of electronic communications networks or services. </t>
         </is>
       </c>
-      <c r="F365" t="inlineStr"/>
     </row>
     <row r="366">
-      <c r="A366" t="inlineStr"/>
       <c r="B366" t="n">
         <v>2</v>
       </c>
@@ -14566,7 +14229,6 @@
           <t>Establish and maintain procedures for managing incidents, and forwarding them to the appropriate personnel (triage)</t>
         </is>
       </c>
-      <c r="F366" t="inlineStr"/>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
@@ -14582,7 +14244,6 @@
           <t>SO18-001</t>
         </is>
       </c>
-      <c r="D367" t="inlineStr"/>
       <c r="E367" t="inlineStr">
         <is>
           <t>Incident management planning should be undertaken, including to ensure reporting in accordance with the legal / regulatory framework</t>
@@ -14613,7 +14274,6 @@
           <t>SO18-002</t>
         </is>
       </c>
-      <c r="D368" t="inlineStr"/>
       <c r="E368" t="inlineStr">
         <is>
           <t>Incident management processes should be adapted to take into account changed technologies and processes</t>
@@ -14631,7 +14291,6 @@
       </c>
     </row>
     <row r="369">
-      <c r="A369" t="inlineStr"/>
       <c r="B369" t="n">
         <v>2</v>
       </c>
@@ -14650,7 +14309,6 @@
           <t>Establish and maintain an incident detection capability that detects incidents. Measures to detect incidents should be understood in a broader sense as to be able to also detect serious events that may lead to incidents</t>
         </is>
       </c>
-      <c r="F369" t="inlineStr"/>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
@@ -14666,7 +14324,6 @@
           <t>SO19-001</t>
         </is>
       </c>
-      <c r="D370" t="inlineStr"/>
       <c r="E370" t="inlineStr">
         <is>
           <t xml:space="preserve">Survey and analysis of resource trouble should be performed </t>
@@ -14697,7 +14354,6 @@
           <t>SO19-002</t>
         </is>
       </c>
-      <c r="D371" t="inlineStr"/>
       <c r="E371" t="inlineStr">
         <is>
           <t>Root-cause analysis should be performed to localize resource trouble</t>
@@ -14728,7 +14384,6 @@
           <t>SO19-003</t>
         </is>
       </c>
-      <c r="D372" t="inlineStr"/>
       <c r="E372" t="inlineStr">
         <is>
           <t xml:space="preserve"> Monitoring infrastructure for timely detection of significant events or incidents including adequate resources to monitor, understand, and analyze security-related network activity</t>
@@ -14759,7 +14414,6 @@
           <t>SO19-004</t>
         </is>
       </c>
-      <c r="D373" t="inlineStr"/>
       <c r="E373" t="inlineStr">
         <is>
           <t>Tools for detecting security threats and violations in operational data collected should be used</t>
@@ -14790,7 +14444,6 @@
           <t>SO19-005</t>
         </is>
       </c>
-      <c r="D374" t="inlineStr"/>
       <c r="E374" t="inlineStr">
         <is>
           <t>Tools and procedures to identify trends and events of interest from collected data should be used, updated, and maintained</t>
@@ -14821,7 +14474,6 @@
           <t>SO19-006</t>
         </is>
       </c>
-      <c r="D375" t="inlineStr"/>
       <c r="E375" t="inlineStr">
         <is>
           <t>Policies and procedures for incident detection should be regularly updated and maintained</t>
@@ -14839,7 +14491,6 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="inlineStr"/>
       <c r="B376" t="n">
         <v>1</v>
       </c>
@@ -14858,10 +14509,8 @@
           <t>D6 covers continuity strategies and contingency plans to mitigate major failures and natural or man-made disasters</t>
         </is>
       </c>
-      <c r="F376" t="inlineStr"/>
     </row>
     <row r="377">
-      <c r="A377" t="inlineStr"/>
       <c r="B377" t="n">
         <v>2</v>
       </c>
@@ -14880,7 +14529,6 @@
           <t>Establish and maintain contingency plans and a strategy for ensuring continuity of networks and communication services provided</t>
         </is>
       </c>
-      <c r="F377" t="inlineStr"/>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
@@ -14896,7 +14544,6 @@
           <t>SO21-001</t>
         </is>
       </c>
-      <c r="D378" t="inlineStr"/>
       <c r="E378" t="inlineStr">
         <is>
           <t>Security measures such as firewalls and backup network/computational capacity to deal with overload situations which may occur as a result of a denial of service attack or during periods of increased traffic. System shall act in a controlled and predictable way if an overload situation cannot be prevented. If security measures are no longer sufficient, the system should not reach an undefined and potentially insecure state</t>
@@ -14927,7 +14574,6 @@
           <t>SO21-002</t>
         </is>
       </c>
-      <c r="D379" t="inlineStr"/>
       <c r="E379" t="inlineStr">
         <is>
           <t>System is protected from growing or dynamic content (e.g. log files, uploads) with countermeasures such as use of a dedicated filesystem separated from main system functions, quotas, or system monitoring tools to ensure that the scenario of a file system reaching its maximum capacity is avoided</t>
@@ -14958,7 +14604,6 @@
           <t>SO21-003</t>
         </is>
       </c>
-      <c r="D380" t="inlineStr"/>
       <c r="E380" t="inlineStr">
         <is>
           <t>Network product should support a mechanism to prevent Syn Flood attacks and should enable this feature by default. Such mechanisms can include using the TCP Syn Cookie technique in the TCP stack</t>
@@ -14989,7 +14634,6 @@
           <t>SO21-004</t>
         </is>
       </c>
-      <c r="D381" t="inlineStr"/>
       <c r="E381" t="inlineStr">
         <is>
           <t>Mobility and handover between 5GS to EPS and vice-versa are handled in accordance with 3GPP technical specification 33.501, clauses 8.2, 8.3, 8.4, 8.5, and 8.6</t>
@@ -15020,7 +14664,6 @@
           <t>SO21-005</t>
         </is>
       </c>
-      <c r="D382" t="inlineStr"/>
       <c r="E382" t="inlineStr">
         <is>
           <t>Security of 5G Single Radio Voice Call Continuity (SRVCC) should be ensured during handover from 5G to UTRAN in accordance with Annex J of 3GPP technical specification 33.501.</t>
@@ -15051,7 +14694,6 @@
           <t>SO21-006</t>
         </is>
       </c>
-      <c r="D383" t="inlineStr"/>
       <c r="E383" t="inlineStr">
         <is>
           <t>SDN control layer should support hardware management to discover hardware failure automatically and recover</t>
@@ -15082,7 +14724,6 @@
           <t>SO21-007</t>
         </is>
       </c>
-      <c r="D384" t="inlineStr"/>
       <c r="E384" t="inlineStr">
         <is>
           <t>MEC system is able to flexibly choose UPF(s) and the corresponding DN according to MEC operators' and/or MEC application providers' operation policy or physical conditions</t>
@@ -15113,7 +14754,6 @@
           <t>SO21-008</t>
         </is>
       </c>
-      <c r="D385" t="inlineStr"/>
       <c r="E385" t="inlineStr">
         <is>
           <t>Denial of service (DoS) protection mitigation is used in distributed edge deployments</t>
@@ -15144,7 +14784,6 @@
           <t>SO21-009</t>
         </is>
       </c>
-      <c r="D386" t="inlineStr"/>
       <c r="E386" t="inlineStr">
         <is>
           <t>Adequate capacity for mission-critical and time-critical applications of 5G services such as URLLC. Higher network availability is provisioned for areas with deployments of time-critical and mission-critical services</t>
@@ -15175,7 +14814,6 @@
           <t>SO21-010</t>
         </is>
       </c>
-      <c r="D387" t="inlineStr"/>
       <c r="E387" t="inlineStr">
         <is>
           <t>Security measures to deal with overload situations which may occur as a result of a denial of service attack or during periods of increased traffic. System should react on an overload situation in a controlled way</t>
@@ -15206,7 +14844,6 @@
           <t>SO21-011</t>
         </is>
       </c>
-      <c r="D388" t="inlineStr"/>
       <c r="E388" t="inlineStr">
         <is>
           <t>MNO should capture resource capability shortfalls</t>
@@ -15237,7 +14874,6 @@
           <t>SO21-012</t>
         </is>
       </c>
-      <c r="D389" t="inlineStr"/>
       <c r="E389" t="inlineStr">
         <is>
           <t xml:space="preserve">Correction and resolution of troubled resources </t>
@@ -15268,7 +14904,6 @@
           <t>SO21-013</t>
         </is>
       </c>
-      <c r="D390" t="inlineStr"/>
       <c r="E390" t="inlineStr">
         <is>
           <t>VAL service should take measures to detect and mitigate DoS attacks to minimize the impact on the network and on VAL users.</t>
@@ -15299,7 +14934,6 @@
           <t>SO21-014</t>
         </is>
       </c>
-      <c r="D391" t="inlineStr"/>
       <c r="E391" t="inlineStr">
         <is>
           <t>Resource performance should be optimized</t>
@@ -15330,7 +14964,6 @@
           <t>SO21-015</t>
         </is>
       </c>
-      <c r="D392" t="inlineStr"/>
       <c r="E392" t="inlineStr">
         <is>
           <t>Business continuity planning should be undertaken. Contingency plans take into account dependent critical sectors</t>
@@ -15348,7 +14981,6 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" t="inlineStr"/>
       <c r="B393" t="n">
         <v>1</v>
       </c>
@@ -15367,10 +14999,8 @@
           <t>D7 covers monitoring, testing and auditing of network and information systems and facilities</t>
         </is>
       </c>
-      <c r="F393" t="inlineStr"/>
     </row>
     <row r="394">
-      <c r="A394" t="inlineStr"/>
       <c r="B394" t="n">
         <v>2</v>
       </c>
@@ -15389,7 +15019,6 @@
           <t>Establish and maintain systems and functions for monitoring and logging of relevant security events in critical network and communication systems</t>
         </is>
       </c>
-      <c r="F394" t="inlineStr"/>
     </row>
     <row r="395">
       <c r="A395" t="inlineStr">
@@ -15405,7 +15034,6 @@
           <t>SO23-001</t>
         </is>
       </c>
-      <c r="D395" t="inlineStr"/>
       <c r="E395" t="inlineStr">
         <is>
           <t>If access to personal data in clear text is required, any access to this data is logged and the log information includes the user identity that has accessed the data</t>
@@ -15436,7 +15064,6 @@
           <t>SO23-002</t>
         </is>
       </c>
-      <c r="D396" t="inlineStr"/>
       <c r="E396" t="inlineStr">
         <is>
           <t xml:space="preserve">Security events are logged together with a unique system reference (e.g. host name, IP or MAC address) along with the exact time of the incident. Network product documentation should provide a list of security events and event data (such as username, length of session etc.) the product logs and where they are stored </t>
@@ -15467,7 +15094,6 @@
           <t>SO23-003</t>
         </is>
       </c>
-      <c r="D397" t="inlineStr"/>
       <c r="E397" t="inlineStr">
         <is>
           <t>Network Products support forwarding of security event logging data to an external central system with secure transport protocols</t>
@@ -15498,7 +15124,6 @@
           <t>SO23-004</t>
         </is>
       </c>
-      <c r="D398" t="inlineStr"/>
       <c r="E398" t="inlineStr">
         <is>
           <t>Security event log has appropriate access control mechanism allowing only privileged users with the necessary rights to have access to the log files</t>
@@ -15529,7 +15154,6 @@
           <t>SO23-005</t>
         </is>
       </c>
-      <c r="D399" t="inlineStr"/>
       <c r="E399" t="inlineStr">
         <is>
           <t>Access to the webserver is logged and the webserver access logs contain at least the following information: access timestamp, source IP address, account/login name if known, requested URL, and status code of response</t>
@@ -15560,7 +15184,6 @@
           <t>SO23-006</t>
         </is>
       </c>
-      <c r="D400" t="inlineStr"/>
       <c r="E400" t="inlineStr">
         <is>
           <t>Appropriate logging and auditing mechanisms should be implemented throughout the slice life cycle. Real-time analysis of security events in the logs should be performed to immediately detect any attempted attacks</t>
@@ -15591,7 +15214,6 @@
           <t>SO23-007</t>
         </is>
       </c>
-      <c r="D401" t="inlineStr"/>
       <c r="E401" t="inlineStr">
         <is>
           <t>All resources and network functions consumed by a slice are monitored</t>
@@ -15622,7 +15244,6 @@
           <t>SO23-008</t>
         </is>
       </c>
-      <c r="D402" t="inlineStr"/>
       <c r="E402" t="inlineStr">
         <is>
           <t>Appropriate logging and auditing mechanisms should be implemented in the SDN control layer</t>
@@ -15653,7 +15274,6 @@
           <t>SO23-009</t>
         </is>
       </c>
-      <c r="D403" t="inlineStr"/>
       <c r="E403" t="inlineStr">
         <is>
           <t>MEC system collects charging related data, logs it securely, and makes it available for further processing</t>
@@ -15684,7 +15304,6 @@
           <t>SO23-010</t>
         </is>
       </c>
-      <c r="D404" t="inlineStr"/>
       <c r="E404" t="inlineStr">
         <is>
           <t>Event logs containing user activities, exceptions, faults, and information security events are generated, stored, and reviewed. These logs are integrated and corelated with service provider monitoring mechanisms</t>
@@ -15715,7 +15334,6 @@
           <t>SO23-011</t>
         </is>
       </c>
-      <c r="D405" t="inlineStr"/>
       <c r="E405" t="inlineStr">
         <is>
           <t xml:space="preserve">MNO has a logging policy which ensures that security and management data is accurate, timely, complete, and includes VPN/remote access </t>
@@ -15746,7 +15364,6 @@
           <t>SO23-012</t>
         </is>
       </c>
-      <c r="D406" t="inlineStr"/>
       <c r="E406" t="inlineStr">
         <is>
           <t xml:space="preserve">The VNF supports comparing the owned resource state with the parsed resource state from VNFD (VNF Description) by the VNFM. 
@@ -15783,7 +15400,6 @@
           <t>SO23-013</t>
         </is>
       </c>
-      <c r="D407" t="inlineStr"/>
       <c r="E407" t="inlineStr">
         <is>
           <t>The VNF alerts the OAM upon finding an abnormal situation, e.g. a VNFCI is deleted by a VIM. 
@@ -15817,7 +15433,6 @@
           <t>SO23-014</t>
         </is>
       </c>
-      <c r="D408" t="inlineStr"/>
       <c r="E408" t="inlineStr">
         <is>
           <t>When the VIM is compromised to change the hardware resource configuration, an alert is triggered by the hardware. 
@@ -15852,7 +15467,6 @@
           <t>SO23-015</t>
         </is>
       </c>
-      <c r="D409" t="inlineStr"/>
       <c r="E409" t="inlineStr">
         <is>
           <t>Monitoring of the presence or loading of known vulnerable software.
@@ -15888,7 +15502,6 @@
           <t>SO23-016</t>
         </is>
       </c>
-      <c r="D410" t="inlineStr"/>
       <c r="E410" t="inlineStr">
         <is>
           <t>Adequate monitoring of hardware parameters</t>
@@ -15919,7 +15532,6 @@
           <t>SO23-017</t>
         </is>
       </c>
-      <c r="D411" t="inlineStr"/>
       <c r="E411" t="inlineStr">
         <is>
           <t>Security and management data should be properly processed and regularly reviewed according to predefined procedures</t>
@@ -15950,7 +15562,6 @@
           <t>SO23-018</t>
         </is>
       </c>
-      <c r="D412" t="inlineStr"/>
       <c r="E412" t="inlineStr">
         <is>
           <t>Resource performance should be monitored</t>
@@ -15981,7 +15592,6 @@
           <t>SO23-019</t>
         </is>
       </c>
-      <c r="D413" t="inlineStr"/>
       <c r="E413" t="inlineStr">
         <is>
           <t>The virtualisation layer alerts the driver error to the administrator.</t>
@@ -16013,7 +15623,6 @@
           <t>SO23-020</t>
         </is>
       </c>
-      <c r="D414" t="inlineStr"/>
       <c r="E414" t="inlineStr">
         <is>
           <t>All the NFV  elements should submit security events (e.g. authentication, authorisation and accounting, login attempts, administration functions and configurations) to a centralised platform, which shall monitor and analyse in real time the messages for possible attempts at intrusion.
@@ -16048,7 +15657,6 @@
           <t>SO23-021</t>
         </is>
       </c>
-      <c r="D415" t="inlineStr"/>
       <c r="E415" t="inlineStr">
         <is>
           <t>Tools for capturing relevant operational data should be used and regularly updated</t>
@@ -16079,7 +15687,6 @@
           <t>SO23-022</t>
         </is>
       </c>
-      <c r="D416" t="inlineStr"/>
       <c r="E416" t="inlineStr">
         <is>
           <t>Policy-based processes and tools for collection, filtering, aggregation, distribution, and retention of data should be used and regularly updated</t>
@@ -16097,7 +15704,6 @@
       </c>
     </row>
     <row r="417">
-      <c r="A417" t="inlineStr"/>
       <c r="B417" t="n">
         <v>2</v>
       </c>
@@ -16116,7 +15722,6 @@
           <t>Establish and maintain policies for testing and exercising backup and contingency plans, where needed in collaboration with third parties</t>
         </is>
       </c>
-      <c r="F417" t="inlineStr"/>
     </row>
     <row r="418">
       <c r="A418" t="inlineStr">
@@ -16132,7 +15737,6 @@
           <t>SO24-001</t>
         </is>
       </c>
-      <c r="D418" t="inlineStr"/>
       <c r="E418" t="inlineStr">
         <is>
           <t>MANO and NFVI nodes are set up with redundancy, and ready to support high availability. They are distributed across multiple data centers and availability zones.</t>
@@ -16165,7 +15769,6 @@
           <t>SO24-002</t>
         </is>
       </c>
-      <c r="D419" t="inlineStr"/>
       <c r="E419" t="inlineStr">
         <is>
           <t>Infrastructure recovery planning should be undertaken</t>
@@ -16183,7 +15786,6 @@
       </c>
     </row>
     <row r="420">
-      <c r="A420" t="inlineStr"/>
       <c r="B420" t="n">
         <v>2</v>
       </c>
@@ -16202,7 +15804,6 @@
           <t>Establish and maintain policies for testing network and information systems, particularly when connecting to new networks or systems. Testing refers primarily to testing of security related functionality, rather than to general ICT functionality testing</t>
         </is>
       </c>
-      <c r="F420" t="inlineStr"/>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
@@ -16218,7 +15819,6 @@
           <t>SO25-001</t>
         </is>
       </c>
-      <c r="D421" t="inlineStr"/>
       <c r="E421" t="inlineStr">
         <is>
           <t>MNOs and suppliers employ tools and resources for secure use of software in development projects. The tools include software composition analysis (SCA) that identifies all package dependencies (including versions, vulnerabilities, and licensing information) in a code base, static application security testing (SAST) which identifies vulnerabilities in the code base (excluding packages), and dynamic application security testing (DAST) which can be tuned and trained to detect run-time vulnerabilities.</t>
@@ -16252,7 +15852,6 @@
           <t>SO25-002</t>
         </is>
       </c>
-      <c r="D422" t="inlineStr"/>
       <c r="E422" t="inlineStr">
         <is>
           <t>A regular security testing program is used for identifying and mitigating vulnerabilities in MEC applications in a timely manner</t>
@@ -16270,7 +15869,6 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" t="inlineStr"/>
       <c r="B423" t="n">
         <v>2</v>
       </c>
@@ -16289,7 +15887,6 @@
           <t>Establish and maintain a policy for monitoring compliance to standards and legal requirements</t>
         </is>
       </c>
-      <c r="F423" t="inlineStr"/>
     </row>
     <row r="424">
       <c r="A424" t="inlineStr">
@@ -16305,7 +15902,6 @@
           <t>SO27-001</t>
         </is>
       </c>
-      <c r="D424" t="inlineStr"/>
       <c r="E424" t="inlineStr">
         <is>
           <t>Security data collection and distribution should be audited</t>
@@ -16336,7 +15932,6 @@
           <t>SO27-002</t>
         </is>
       </c>
-      <c r="D425" t="inlineStr"/>
       <c r="E425" t="inlineStr">
         <is>
           <t>Fraud prevention and management policy should be implemented</t>
@@ -16367,7 +15962,6 @@
           <t>SO27-003</t>
         </is>
       </c>
-      <c r="D426" t="inlineStr"/>
       <c r="E426" t="inlineStr">
         <is>
           <t>Tools, processes and rulesets for forensic investigation of incidents should be used and regularly updated</t>
@@ -16385,7 +15979,6 @@
       </c>
     </row>
     <row r="427">
-      <c r="A427" t="inlineStr"/>
       <c r="B427" t="n">
         <v>1</v>
       </c>
@@ -16404,10 +15997,8 @@
           <t>D8 covers security objectives related to threat intelligence and to outreach to end-users for the purpose of sharing the information about major threats to the security of networks and services</t>
         </is>
       </c>
-      <c r="F427" t="inlineStr"/>
     </row>
     <row r="428">
-      <c r="A428" t="inlineStr"/>
       <c r="B428" t="n">
         <v>2</v>
       </c>
@@ -16426,7 +16017,6 @@
           <t>Inform users of particular and significant security threats to network or service that may affect the end-user and of the measures they can take to protect the security of their communications</t>
         </is>
       </c>
-      <c r="F428" t="inlineStr"/>
     </row>
     <row r="429">
       <c r="A429" t="inlineStr">
@@ -16442,7 +16032,6 @@
           <t>SO29-001</t>
         </is>
       </c>
-      <c r="D429" t="inlineStr"/>
       <c r="E429" t="inlineStr">
         <is>
           <t>Visibility of the operation of AS confidentiality and integrity, as well as, NAS confidentiality and integrity should be provided to the user/application. The serving network identifier information should be available to applications in the UE</t>
@@ -16473,7 +16062,6 @@
           <t>SO29-002</t>
         </is>
       </c>
-      <c r="D430" t="inlineStr"/>
       <c r="E430" t="inlineStr">
         <is>
           <t>To the extent feasible, detect and notify users about vulnerable devices, including IoT and UE supporting eSIM/iSIM</t>
@@ -16504,7 +16092,6 @@
           <t>SO29-003</t>
         </is>
       </c>
-      <c r="D431" t="inlineStr"/>
       <c r="E431" t="inlineStr">
         <is>
           <t>Inform enterprises and users about signaling threats in legacy network environments, countermeasures deployed, and provide precautionary guidance to prevent adverse events</t>
@@ -16518,6 +16105,80 @@
       <c r="G431" t="inlineStr">
         <is>
           <t>MNO has documented policies and processes, including details on communication channels (web pages, brochures, etc.), explaining risks of legacy SS7, GTP and Diameter signaling protocols such as location tracking, interception of data, call, e-mail and SMS messages, financial fraud, theft or digital identity theft. These policies and processes include provision of timely guidance (via blog posts etc.), e.g. highlighting the risk of using SMS as a multi-factor authentication mechanism and suggesting alternative authentication</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>type</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>urn_prefix</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>prefix_id</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>prefix_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>urn:intuitem:risk:reference_control:enisa-5g-scm</t>
         </is>
       </c>
     </row>
